--- a/raw_data/Hebrew_WG/[Hebrew_WG].xlsx
+++ b/raw_data/Hebrew_WG/[Hebrew_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-7180" yWindow="-21600" windowWidth="19200" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="4500" yWindow="1740" windowWidth="19200" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="1607">
   <si>
     <t>לא לזוז</t>
   </si>
@@ -4837,6 +4837,9 @@
   </si>
   <si>
     <t>action_words</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -5274,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="B544" sqref="B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5323,7 +5326,9 @@
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1606</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>1090</v>
       </c>
@@ -5339,7 +5344,9 @@
       <c r="A3" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1606</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>1090</v>
       </c>
@@ -5355,7 +5362,9 @@
       <c r="A4" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1606</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>1090</v>
       </c>
@@ -5372,7 +5381,7 @@
         <v>550</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>1606</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1091</v>
@@ -5395,7 +5404,7 @@
         <v>551</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>1606</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1091</v>
@@ -5418,7 +5427,7 @@
         <v>552</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>1606</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1091</v>
@@ -5441,7 +5450,7 @@
         <v>553</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>1606</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1091</v>
@@ -5464,7 +5473,7 @@
         <v>554</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>1606</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1091</v>
@@ -5487,7 +5496,7 @@
         <v>555</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>1606</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1091</v>
@@ -5510,7 +5519,7 @@
         <v>556</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>1606</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1091</v>
@@ -5533,7 +5542,7 @@
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>1606</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1091</v>
@@ -5556,7 +5565,7 @@
         <v>558</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>1606</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1091</v>
@@ -5579,7 +5588,7 @@
         <v>559</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>1606</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1091</v>
@@ -5602,7 +5611,7 @@
         <v>560</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>1606</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1091</v>
@@ -5625,7 +5634,7 @@
         <v>561</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>1606</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1091</v>
@@ -5648,7 +5657,7 @@
         <v>562</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>1606</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1091</v>
@@ -5671,7 +5680,7 @@
         <v>563</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>1606</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1091</v>
@@ -5694,7 +5703,7 @@
         <v>564</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>1606</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1091</v>
@@ -5717,7 +5726,7 @@
         <v>565</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>1606</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1091</v>
@@ -5740,7 +5749,7 @@
         <v>566</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>1606</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1091</v>
@@ -5763,7 +5772,7 @@
         <v>567</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>1606</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1091</v>
@@ -5786,7 +5795,7 @@
         <v>568</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>1606</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1091</v>
@@ -5809,7 +5818,7 @@
         <v>569</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>1606</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1091</v>
@@ -5832,7 +5841,7 @@
         <v>570</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>1606</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1091</v>
@@ -5855,7 +5864,7 @@
         <v>571</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>1606</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1091</v>
@@ -5878,7 +5887,7 @@
         <v>572</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>1606</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1091</v>
@@ -5901,7 +5910,7 @@
         <v>573</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>1606</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1091</v>
@@ -5924,7 +5933,7 @@
         <v>574</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>1606</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1091</v>
@@ -5947,7 +5956,7 @@
         <v>575</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>1606</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1091</v>
@@ -5970,7 +5979,7 @@
         <v>576</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>1606</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>527</v>
@@ -5993,7 +6002,7 @@
         <v>577</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>1606</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>527</v>
@@ -6016,7 +6025,7 @@
         <v>578</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>1606</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>527</v>
@@ -6039,7 +6048,7 @@
         <v>579</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>1606</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>527</v>
@@ -6062,7 +6071,7 @@
         <v>580</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>1606</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>527</v>
@@ -6085,7 +6094,7 @@
         <v>581</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>1606</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>527</v>
@@ -6108,7 +6117,7 @@
         <v>582</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>1606</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>527</v>
@@ -6131,7 +6140,7 @@
         <v>583</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>1606</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>527</v>
@@ -6154,7 +6163,7 @@
         <v>584</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>1606</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>527</v>
@@ -6177,7 +6186,7 @@
         <v>585</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>1606</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>527</v>
@@ -6200,7 +6209,7 @@
         <v>586</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>1606</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>527</v>
@@ -6223,7 +6232,7 @@
         <v>587</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>1606</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>527</v>
@@ -6246,7 +6255,7 @@
         <v>588</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>1606</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>527</v>
@@ -6269,7 +6278,7 @@
         <v>589</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>1606</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>527</v>
@@ -6292,7 +6301,7 @@
         <v>590</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>1606</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>527</v>
@@ -6315,7 +6324,7 @@
         <v>591</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>1606</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>527</v>
@@ -6338,7 +6347,7 @@
         <v>592</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>1606</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>527</v>
@@ -6361,7 +6370,7 @@
         <v>593</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>1606</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>527</v>
@@ -6384,7 +6393,7 @@
         <v>594</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>1606</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>527</v>
@@ -6407,7 +6416,7 @@
         <v>595</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>1606</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>527</v>
@@ -6430,7 +6439,7 @@
         <v>596</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>1606</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>527</v>
@@ -6453,7 +6462,7 @@
         <v>597</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>1606</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>527</v>
@@ -6476,7 +6485,7 @@
         <v>598</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>1606</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>527</v>
@@ -6499,7 +6508,7 @@
         <v>599</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>1606</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>527</v>
@@ -6522,7 +6531,7 @@
         <v>600</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>1606</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>527</v>
@@ -6545,7 +6554,7 @@
         <v>601</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>1606</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>527</v>
@@ -6568,7 +6577,7 @@
         <v>602</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>1606</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>527</v>
@@ -6591,7 +6600,7 @@
         <v>603</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>1606</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>527</v>
@@ -6614,7 +6623,7 @@
         <v>604</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>1606</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>527</v>
@@ -6637,7 +6646,7 @@
         <v>605</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>1606</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>527</v>
@@ -6660,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>56</v>
+        <v>1606</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>527</v>
@@ -6683,7 +6692,7 @@
         <v>607</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>1606</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>527</v>
@@ -6706,7 +6715,7 @@
         <v>608</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>1606</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>527</v>
@@ -6729,7 +6738,7 @@
         <v>609</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>1606</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>527</v>
@@ -6752,7 +6761,7 @@
         <v>610</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>60</v>
+        <v>1606</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>527</v>
@@ -6775,7 +6784,7 @@
         <v>611</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>1606</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>527</v>
@@ -6798,7 +6807,7 @@
         <v>612</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>62</v>
+        <v>1606</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>527</v>
@@ -6821,7 +6830,7 @@
         <v>613</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>63</v>
+        <v>1606</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>527</v>
@@ -6844,7 +6853,7 @@
         <v>614</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>1606</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>527</v>
@@ -6867,7 +6876,7 @@
         <v>615</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>1606</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>527</v>
@@ -6890,7 +6899,7 @@
         <v>616</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>66</v>
+        <v>1606</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>527</v>
@@ -6913,7 +6922,7 @@
         <v>617</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>1606</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>527</v>
@@ -6936,7 +6945,7 @@
         <v>618</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>1606</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>527</v>
@@ -6959,7 +6968,7 @@
         <v>619</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>1606</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>527</v>
@@ -6982,7 +6991,7 @@
         <v>620</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>1606</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>527</v>
@@ -7005,7 +7014,7 @@
         <v>621</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>1606</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>527</v>
@@ -7028,7 +7037,7 @@
         <v>622</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>1606</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>527</v>
@@ -7051,7 +7060,7 @@
         <v>623</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>1606</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>527</v>
@@ -7074,7 +7083,7 @@
         <v>624</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>1606</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>527</v>
@@ -7097,7 +7106,7 @@
         <v>625</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>1606</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>527</v>
@@ -7120,7 +7129,7 @@
         <v>626</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>1606</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>527</v>
@@ -7143,7 +7152,7 @@
         <v>627</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
+        <v>1606</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>527</v>
@@ -7166,7 +7175,7 @@
         <v>628</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>1606</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>527</v>
@@ -7189,7 +7198,7 @@
         <v>629</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>79</v>
+        <v>1606</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>527</v>
@@ -7212,7 +7221,7 @@
         <v>630</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>1606</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>527</v>
@@ -7235,7 +7244,7 @@
         <v>631</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>81</v>
+        <v>1606</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>527</v>
@@ -7258,7 +7267,7 @@
         <v>632</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>1606</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>527</v>
@@ -7281,7 +7290,7 @@
         <v>633</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>1606</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>527</v>
@@ -7304,7 +7313,7 @@
         <v>634</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>84</v>
+        <v>1606</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>527</v>
@@ -7327,7 +7336,7 @@
         <v>635</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>85</v>
+        <v>1606</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>527</v>
@@ -7350,7 +7359,7 @@
         <v>636</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>86</v>
+        <v>1606</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>527</v>
@@ -7373,7 +7382,7 @@
         <v>637</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>87</v>
+        <v>1606</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>527</v>
@@ -7396,7 +7405,7 @@
         <v>638</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>88</v>
+        <v>1606</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>527</v>
@@ -7419,7 +7428,7 @@
         <v>639</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>89</v>
+        <v>1606</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>527</v>
@@ -7442,7 +7451,7 @@
         <v>640</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>1606</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>527</v>
@@ -7465,7 +7474,7 @@
         <v>641</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>91</v>
+        <v>1606</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>527</v>
@@ -7488,7 +7497,7 @@
         <v>642</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>1606</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>527</v>
@@ -7511,7 +7520,7 @@
         <v>643</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>93</v>
+        <v>1606</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>527</v>
@@ -7534,7 +7543,7 @@
         <v>644</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>94</v>
+        <v>1606</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>527</v>
@@ -7557,7 +7566,7 @@
         <v>645</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>95</v>
+        <v>1606</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>527</v>
@@ -7580,7 +7589,7 @@
         <v>646</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>1606</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>527</v>
@@ -7603,7 +7612,7 @@
         <v>647</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>1606</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>527</v>
@@ -7626,7 +7635,7 @@
         <v>648</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>98</v>
+        <v>1606</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>527</v>
@@ -7649,7 +7658,7 @@
         <v>649</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>99</v>
+        <v>1606</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>527</v>
@@ -7672,7 +7681,7 @@
         <v>650</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>100</v>
+        <v>1606</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>527</v>
@@ -7695,7 +7704,7 @@
         <v>651</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>101</v>
+        <v>1606</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>527</v>
@@ -7718,7 +7727,7 @@
         <v>652</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>1606</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>527</v>
@@ -7741,7 +7750,7 @@
         <v>653</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>103</v>
+        <v>1606</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>527</v>
@@ -7764,7 +7773,7 @@
         <v>654</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>104</v>
+        <v>1606</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>527</v>
@@ -7787,7 +7796,7 @@
         <v>655</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>105</v>
+        <v>1606</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>527</v>
@@ -7810,7 +7819,7 @@
         <v>656</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>1606</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>527</v>
@@ -7833,7 +7842,7 @@
         <v>657</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>1606</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>527</v>
@@ -7856,7 +7865,7 @@
         <v>658</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>108</v>
+        <v>1606</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>527</v>
@@ -7879,7 +7888,7 @@
         <v>659</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>109</v>
+        <v>1606</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>527</v>
@@ -7902,7 +7911,7 @@
         <v>660</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>110</v>
+        <v>1606</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>527</v>
@@ -7925,7 +7934,7 @@
         <v>661</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>111</v>
+        <v>1606</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>527</v>
@@ -7948,7 +7957,7 @@
         <v>662</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>112</v>
+        <v>1606</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>527</v>
@@ -7971,7 +7980,7 @@
         <v>663</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>113</v>
+        <v>1606</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>527</v>
@@ -7994,7 +8003,7 @@
         <v>664</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>114</v>
+        <v>1606</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>527</v>
@@ -8017,7 +8026,7 @@
         <v>665</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>115</v>
+        <v>1606</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>527</v>
@@ -8040,7 +8049,7 @@
         <v>666</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>116</v>
+        <v>1606</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>527</v>
@@ -8063,7 +8072,7 @@
         <v>667</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>117</v>
+        <v>1606</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>527</v>
@@ -8086,7 +8095,7 @@
         <v>668</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>118</v>
+        <v>1606</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>527</v>
@@ -8109,7 +8118,7 @@
         <v>669</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>119</v>
+        <v>1606</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>527</v>
@@ -8132,7 +8141,7 @@
         <v>670</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>120</v>
+        <v>1606</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>527</v>
@@ -8155,7 +8164,7 @@
         <v>671</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>121</v>
+        <v>1606</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>527</v>
@@ -8178,7 +8187,7 @@
         <v>672</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>122</v>
+        <v>1606</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>527</v>
@@ -8201,7 +8210,7 @@
         <v>673</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>123</v>
+        <v>1606</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>527</v>
@@ -8224,7 +8233,7 @@
         <v>674</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>124</v>
+        <v>1606</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>527</v>
@@ -8247,7 +8256,7 @@
         <v>675</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>125</v>
+        <v>1606</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>527</v>
@@ -8270,7 +8279,7 @@
         <v>676</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>126</v>
+        <v>1606</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>527</v>
@@ -8293,7 +8302,7 @@
         <v>677</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
+        <v>1606</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>527</v>
@@ -8316,7 +8325,7 @@
         <v>678</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>128</v>
+        <v>1606</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>527</v>
@@ -8339,7 +8348,7 @@
         <v>679</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>129</v>
+        <v>1606</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>527</v>
@@ -8362,7 +8371,7 @@
         <v>680</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>130</v>
+        <v>1606</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>527</v>
@@ -8385,7 +8394,7 @@
         <v>681</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>131</v>
+        <v>1606</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>527</v>
@@ -8408,7 +8417,7 @@
         <v>682</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>132</v>
+        <v>1606</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>527</v>
@@ -8431,7 +8440,7 @@
         <v>683</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>133</v>
+        <v>1606</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>527</v>
@@ -8454,7 +8463,7 @@
         <v>684</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>134</v>
+        <v>1606</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>527</v>
@@ -8477,7 +8486,7 @@
         <v>685</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>135</v>
+        <v>1606</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>527</v>
@@ -8500,7 +8509,7 @@
         <v>686</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>136</v>
+        <v>1606</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>527</v>
@@ -8523,7 +8532,7 @@
         <v>687</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>49</v>
+        <v>1606</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>527</v>
@@ -8546,7 +8555,7 @@
         <v>688</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>137</v>
+        <v>1606</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>527</v>
@@ -8569,7 +8578,7 @@
         <v>689</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>138</v>
+        <v>1606</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>527</v>
@@ -8592,7 +8601,7 @@
         <v>690</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>139</v>
+        <v>1606</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>527</v>
@@ -8615,7 +8624,7 @@
         <v>691</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>140</v>
+        <v>1606</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>527</v>
@@ -8638,7 +8647,7 @@
         <v>692</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>141</v>
+        <v>1606</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>527</v>
@@ -8661,7 +8670,7 @@
         <v>693</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>142</v>
+        <v>1606</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>527</v>
@@ -8684,7 +8693,7 @@
         <v>694</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>143</v>
+        <v>1606</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>527</v>
@@ -8707,7 +8716,7 @@
         <v>695</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>144</v>
+        <v>1606</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>527</v>
@@ -8730,7 +8739,7 @@
         <v>696</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>145</v>
+        <v>1606</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>527</v>
@@ -8753,7 +8762,7 @@
         <v>697</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>146</v>
+        <v>1606</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>527</v>
@@ -8776,7 +8785,7 @@
         <v>698</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>147</v>
+        <v>1606</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>527</v>
@@ -8799,7 +8808,7 @@
         <v>699</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>148</v>
+        <v>1606</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>527</v>
@@ -8822,7 +8831,7 @@
         <v>700</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>149</v>
+        <v>1606</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>527</v>
@@ -8845,7 +8854,7 @@
         <v>701</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>150</v>
+        <v>1606</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>527</v>
@@ -8868,7 +8877,7 @@
         <v>702</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>151</v>
+        <v>1606</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>527</v>
@@ -8891,7 +8900,7 @@
         <v>703</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>152</v>
+        <v>1606</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>527</v>
@@ -8914,7 +8923,7 @@
         <v>704</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>153</v>
+        <v>1606</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>527</v>
@@ -8937,7 +8946,7 @@
         <v>705</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>154</v>
+        <v>1606</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>527</v>
@@ -8960,7 +8969,7 @@
         <v>706</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>155</v>
+        <v>1606</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>527</v>
@@ -8983,7 +8992,7 @@
         <v>707</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>156</v>
+        <v>1606</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>527</v>
@@ -9006,7 +9015,7 @@
         <v>708</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>157</v>
+        <v>1606</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>527</v>
@@ -9029,7 +9038,7 @@
         <v>709</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>158</v>
+        <v>1606</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>527</v>
@@ -9052,7 +9061,7 @@
         <v>710</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>159</v>
+        <v>1606</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>527</v>
@@ -9075,7 +9084,7 @@
         <v>711</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>160</v>
+        <v>1606</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>527</v>
@@ -9098,7 +9107,7 @@
         <v>712</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>161</v>
+        <v>1606</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>527</v>
@@ -9121,7 +9130,7 @@
         <v>713</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>162</v>
+        <v>1606</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>527</v>
@@ -9144,7 +9153,7 @@
         <v>714</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>163</v>
+        <v>1606</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>527</v>
@@ -9167,7 +9176,7 @@
         <v>715</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>164</v>
+        <v>1606</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>527</v>
@@ -9190,7 +9199,7 @@
         <v>716</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>165</v>
+        <v>1606</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>527</v>
@@ -9213,7 +9222,7 @@
         <v>717</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>166</v>
+        <v>1606</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>527</v>
@@ -9236,7 +9245,7 @@
         <v>718</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>167</v>
+        <v>1606</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>527</v>
@@ -9259,7 +9268,7 @@
         <v>719</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>168</v>
+        <v>1606</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>527</v>
@@ -9282,7 +9291,7 @@
         <v>720</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>169</v>
+        <v>1606</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>527</v>
@@ -9305,7 +9314,7 @@
         <v>721</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>170</v>
+        <v>1606</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>527</v>
@@ -9328,7 +9337,7 @@
         <v>722</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>171</v>
+        <v>1606</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>527</v>
@@ -9351,7 +9360,7 @@
         <v>723</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>172</v>
+        <v>1606</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>527</v>
@@ -9374,7 +9383,7 @@
         <v>724</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>173</v>
+        <v>1606</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>527</v>
@@ -9397,7 +9406,7 @@
         <v>725</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>174</v>
+        <v>1606</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>527</v>
@@ -9420,7 +9429,7 @@
         <v>726</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>175</v>
+        <v>1606</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>527</v>
@@ -9443,7 +9452,7 @@
         <v>727</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>176</v>
+        <v>1606</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>527</v>
@@ -9466,7 +9475,7 @@
         <v>728</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>177</v>
+        <v>1606</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>527</v>
@@ -9489,7 +9498,7 @@
         <v>729</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>178</v>
+        <v>1606</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>527</v>
@@ -9512,7 +9521,7 @@
         <v>730</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>179</v>
+        <v>1606</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>527</v>
@@ -9535,7 +9544,7 @@
         <v>731</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>180</v>
+        <v>1606</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>527</v>
@@ -9558,7 +9567,7 @@
         <v>732</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>181</v>
+        <v>1606</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>527</v>
@@ -9581,7 +9590,7 @@
         <v>733</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>182</v>
+        <v>1606</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>527</v>
@@ -9604,7 +9613,7 @@
         <v>734</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>183</v>
+        <v>1606</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>527</v>
@@ -9627,7 +9636,7 @@
         <v>735</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>184</v>
+        <v>1606</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>527</v>
@@ -9650,7 +9659,7 @@
         <v>736</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>185</v>
+        <v>1606</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>527</v>
@@ -9673,7 +9682,7 @@
         <v>737</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>186</v>
+        <v>1606</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>527</v>
@@ -9696,7 +9705,7 @@
         <v>738</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>187</v>
+        <v>1606</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>527</v>
@@ -9719,7 +9728,7 @@
         <v>739</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>188</v>
+        <v>1606</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>527</v>
@@ -9742,7 +9751,7 @@
         <v>740</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>189</v>
+        <v>1606</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>527</v>
@@ -9765,7 +9774,7 @@
         <v>741</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>190</v>
+        <v>1606</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>527</v>
@@ -9788,7 +9797,7 @@
         <v>742</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>191</v>
+        <v>1606</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>527</v>
@@ -9811,7 +9820,7 @@
         <v>743</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>192</v>
+        <v>1606</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>527</v>
@@ -9834,7 +9843,7 @@
         <v>744</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>193</v>
+        <v>1606</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>527</v>
@@ -9857,7 +9866,7 @@
         <v>745</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>194</v>
+        <v>1606</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>527</v>
@@ -9880,7 +9889,7 @@
         <v>746</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>195</v>
+        <v>1606</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>527</v>
@@ -9903,7 +9912,7 @@
         <v>747</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>196</v>
+        <v>1606</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>527</v>
@@ -9926,7 +9935,7 @@
         <v>748</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>197</v>
+        <v>1606</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>527</v>
@@ -9949,7 +9958,7 @@
         <v>749</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>198</v>
+        <v>1606</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>527</v>
@@ -9972,7 +9981,7 @@
         <v>750</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>199</v>
+        <v>1606</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>527</v>
@@ -9995,7 +10004,7 @@
         <v>751</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>200</v>
+        <v>1606</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>527</v>
@@ -10018,7 +10027,7 @@
         <v>752</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>201</v>
+        <v>1606</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>527</v>
@@ -10041,7 +10050,7 @@
         <v>753</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>202</v>
+        <v>1606</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>527</v>
@@ -10064,7 +10073,7 @@
         <v>754</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>203</v>
+        <v>1606</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>527</v>
@@ -10087,7 +10096,7 @@
         <v>755</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>204</v>
+        <v>1606</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>527</v>
@@ -10110,7 +10119,7 @@
         <v>756</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>205</v>
+        <v>1606</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>527</v>
@@ -10133,7 +10142,7 @@
         <v>757</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>206</v>
+        <v>1606</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>527</v>
@@ -10156,7 +10165,7 @@
         <v>758</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>207</v>
+        <v>1606</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>527</v>
@@ -10179,7 +10188,7 @@
         <v>759</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>208</v>
+        <v>1606</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>527</v>
@@ -10202,7 +10211,7 @@
         <v>760</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>209</v>
+        <v>1606</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>527</v>
@@ -10225,7 +10234,7 @@
         <v>761</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>210</v>
+        <v>1606</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>527</v>
@@ -10248,7 +10257,7 @@
         <v>762</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>211</v>
+        <v>1606</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>527</v>
@@ -10271,7 +10280,7 @@
         <v>763</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>212</v>
+        <v>1606</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>527</v>
@@ -10294,7 +10303,7 @@
         <v>764</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>213</v>
+        <v>1606</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>527</v>
@@ -10317,7 +10326,7 @@
         <v>765</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>214</v>
+        <v>1606</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>527</v>
@@ -10340,7 +10349,7 @@
         <v>766</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>215</v>
+        <v>1606</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>527</v>
@@ -10363,7 +10372,7 @@
         <v>767</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>216</v>
+        <v>1606</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>527</v>
@@ -10386,7 +10395,7 @@
         <v>768</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>217</v>
+        <v>1606</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>527</v>
@@ -10409,7 +10418,7 @@
         <v>769</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>218</v>
+        <v>1606</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>527</v>
@@ -10432,7 +10441,7 @@
         <v>770</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>219</v>
+        <v>1606</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>527</v>
@@ -10455,7 +10464,7 @@
         <v>771</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>220</v>
+        <v>1606</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>527</v>
@@ -10478,7 +10487,7 @@
         <v>772</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>221</v>
+        <v>1606</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>527</v>
@@ -10501,7 +10510,7 @@
         <v>773</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>222</v>
+        <v>1606</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>527</v>
@@ -10524,7 +10533,7 @@
         <v>774</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>223</v>
+        <v>1606</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>527</v>
@@ -10547,7 +10556,7 @@
         <v>775</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>224</v>
+        <v>1606</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>527</v>
@@ -10570,7 +10579,7 @@
         <v>776</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>225</v>
+        <v>1606</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>527</v>
@@ -10593,7 +10602,7 @@
         <v>777</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>226</v>
+        <v>1606</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>527</v>
@@ -10616,7 +10625,7 @@
         <v>778</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>227</v>
+        <v>1606</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>527</v>
@@ -10639,7 +10648,7 @@
         <v>779</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>228</v>
+        <v>1606</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>527</v>
@@ -10662,7 +10671,7 @@
         <v>780</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>229</v>
+        <v>1606</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>527</v>
@@ -10685,7 +10694,7 @@
         <v>781</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>230</v>
+        <v>1606</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>527</v>
@@ -10708,7 +10717,7 @@
         <v>782</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>231</v>
+        <v>1606</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>527</v>
@@ -10731,7 +10740,7 @@
         <v>783</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>232</v>
+        <v>1606</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>527</v>
@@ -10754,7 +10763,7 @@
         <v>784</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>233</v>
+        <v>1606</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>527</v>
@@ -10777,7 +10786,7 @@
         <v>785</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>234</v>
+        <v>1606</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>527</v>
@@ -10800,7 +10809,7 @@
         <v>786</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>235</v>
+        <v>1606</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>527</v>
@@ -10823,7 +10832,7 @@
         <v>787</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>236</v>
+        <v>1606</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>527</v>
@@ -10846,7 +10855,7 @@
         <v>788</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>237</v>
+        <v>1606</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>527</v>
@@ -10869,7 +10878,7 @@
         <v>789</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>238</v>
+        <v>1606</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>527</v>
@@ -10892,7 +10901,7 @@
         <v>790</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>239</v>
+        <v>1606</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>527</v>
@@ -10915,7 +10924,7 @@
         <v>791</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>240</v>
+        <v>1606</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>527</v>
@@ -10938,7 +10947,7 @@
         <v>792</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>211</v>
+        <v>1606</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>527</v>
@@ -10961,7 +10970,7 @@
         <v>793</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>241</v>
+        <v>1606</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>527</v>
@@ -10984,7 +10993,7 @@
         <v>794</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>242</v>
+        <v>1606</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>527</v>
@@ -11007,7 +11016,7 @@
         <v>795</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>243</v>
+        <v>1606</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>527</v>
@@ -11030,7 +11039,7 @@
         <v>796</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>244</v>
+        <v>1606</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>527</v>
@@ -11053,7 +11062,7 @@
         <v>797</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>245</v>
+        <v>1606</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>527</v>
@@ -11076,7 +11085,7 @@
         <v>798</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>246</v>
+        <v>1606</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>527</v>
@@ -11099,7 +11108,7 @@
         <v>799</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>247</v>
+        <v>1606</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>527</v>
@@ -11122,7 +11131,7 @@
         <v>800</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>248</v>
+        <v>1606</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>527</v>
@@ -11145,7 +11154,7 @@
         <v>801</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>249</v>
+        <v>1606</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>527</v>
@@ -11168,7 +11177,7 @@
         <v>802</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>250</v>
+        <v>1606</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>527</v>
@@ -11191,7 +11200,7 @@
         <v>803</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>251</v>
+        <v>1606</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>527</v>
@@ -11214,7 +11223,7 @@
         <v>804</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>252</v>
+        <v>1606</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>527</v>
@@ -11237,7 +11246,7 @@
         <v>805</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>253</v>
+        <v>1606</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>527</v>
@@ -11260,7 +11269,7 @@
         <v>806</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>254</v>
+        <v>1606</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>527</v>
@@ -11283,7 +11292,7 @@
         <v>807</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>255</v>
+        <v>1606</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>527</v>
@@ -11306,7 +11315,7 @@
         <v>808</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>256</v>
+        <v>1606</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>527</v>
@@ -11329,7 +11338,7 @@
         <v>809</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>257</v>
+        <v>1606</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>527</v>
@@ -11352,7 +11361,7 @@
         <v>810</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>258</v>
+        <v>1606</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>527</v>
@@ -11375,7 +11384,7 @@
         <v>811</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>259</v>
+        <v>1606</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>527</v>
@@ -11398,7 +11407,7 @@
         <v>812</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>260</v>
+        <v>1606</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>527</v>
@@ -11421,7 +11430,7 @@
         <v>813</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>261</v>
+        <v>1606</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>527</v>
@@ -11444,7 +11453,7 @@
         <v>814</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>262</v>
+        <v>1606</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>527</v>
@@ -11467,7 +11476,7 @@
         <v>815</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>263</v>
+        <v>1606</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>527</v>
@@ -11490,7 +11499,7 @@
         <v>816</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>264</v>
+        <v>1606</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>527</v>
@@ -11513,7 +11522,7 @@
         <v>817</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>265</v>
+        <v>1606</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>527</v>
@@ -11536,7 +11545,7 @@
         <v>818</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>266</v>
+        <v>1606</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>527</v>
@@ -11559,7 +11568,7 @@
         <v>819</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>267</v>
+        <v>1606</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>527</v>
@@ -11582,7 +11591,7 @@
         <v>820</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>268</v>
+        <v>1606</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>527</v>
@@ -11605,7 +11614,7 @@
         <v>821</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>269</v>
+        <v>1606</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>527</v>
@@ -11628,7 +11637,7 @@
         <v>822</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>270</v>
+        <v>1606</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>527</v>
@@ -11651,7 +11660,7 @@
         <v>823</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>271</v>
+        <v>1606</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>527</v>
@@ -11674,7 +11683,7 @@
         <v>824</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>272</v>
+        <v>1606</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>527</v>
@@ -11697,7 +11706,7 @@
         <v>825</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>273</v>
+        <v>1606</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>527</v>
@@ -11720,7 +11729,7 @@
         <v>826</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>274</v>
+        <v>1606</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>527</v>
@@ -11743,7 +11752,7 @@
         <v>827</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>275</v>
+        <v>1606</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>527</v>
@@ -11766,7 +11775,7 @@
         <v>828</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>276</v>
+        <v>1606</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>527</v>
@@ -11789,7 +11798,7 @@
         <v>829</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>277</v>
+        <v>1606</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>527</v>
@@ -11812,7 +11821,7 @@
         <v>830</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>278</v>
+        <v>1606</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>527</v>
@@ -11835,7 +11844,7 @@
         <v>831</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>279</v>
+        <v>1606</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>527</v>
@@ -11858,7 +11867,7 @@
         <v>832</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>280</v>
+        <v>1606</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>527</v>
@@ -11881,7 +11890,7 @@
         <v>833</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>281</v>
+        <v>1606</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>527</v>
@@ -11904,7 +11913,7 @@
         <v>834</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>282</v>
+        <v>1606</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>527</v>
@@ -11927,7 +11936,7 @@
         <v>835</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>283</v>
+        <v>1606</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>527</v>
@@ -11950,7 +11959,7 @@
         <v>836</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>284</v>
+        <v>1606</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>527</v>
@@ -11973,7 +11982,7 @@
         <v>837</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>285</v>
+        <v>1606</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>527</v>
@@ -11996,7 +12005,7 @@
         <v>838</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>286</v>
+        <v>1606</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>527</v>
@@ -12019,7 +12028,7 @@
         <v>839</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>287</v>
+        <v>1606</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>527</v>
@@ -12042,7 +12051,7 @@
         <v>840</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>288</v>
+        <v>1606</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>527</v>
@@ -12065,7 +12074,7 @@
         <v>841</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>289</v>
+        <v>1606</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>527</v>
@@ -12088,7 +12097,7 @@
         <v>842</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>290</v>
+        <v>1606</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>527</v>
@@ -12111,7 +12120,7 @@
         <v>843</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>291</v>
+        <v>1606</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>527</v>
@@ -12134,7 +12143,7 @@
         <v>844</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>292</v>
+        <v>1606</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>527</v>
@@ -12157,7 +12166,7 @@
         <v>845</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>293</v>
+        <v>1606</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>527</v>
@@ -12180,7 +12189,7 @@
         <v>846</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>294</v>
+        <v>1606</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>527</v>
@@ -12203,7 +12212,7 @@
         <v>847</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>295</v>
+        <v>1606</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>527</v>
@@ -12226,7 +12235,7 @@
         <v>848</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>296</v>
+        <v>1606</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>527</v>
@@ -12249,7 +12258,7 @@
         <v>849</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>297</v>
+        <v>1606</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>527</v>
@@ -12272,7 +12281,7 @@
         <v>850</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>298</v>
+        <v>1606</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>527</v>
@@ -12295,7 +12304,7 @@
         <v>851</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>299</v>
+        <v>1606</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>527</v>
@@ -12318,7 +12327,7 @@
         <v>852</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>300</v>
+        <v>1606</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>527</v>
@@ -12341,7 +12350,7 @@
         <v>853</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>7</v>
+        <v>1606</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>527</v>
@@ -12364,7 +12373,7 @@
         <v>854</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>301</v>
+        <v>1606</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>527</v>
@@ -12387,7 +12396,7 @@
         <v>855</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>302</v>
+        <v>1606</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>527</v>
@@ -12410,7 +12419,7 @@
         <v>856</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>303</v>
+        <v>1606</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>527</v>
@@ -12433,7 +12442,7 @@
         <v>857</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>304</v>
+        <v>1606</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>527</v>
@@ -12456,7 +12465,7 @@
         <v>858</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>305</v>
+        <v>1606</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>527</v>
@@ -12479,7 +12488,7 @@
         <v>859</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>306</v>
+        <v>1606</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>527</v>
@@ -12502,7 +12511,7 @@
         <v>860</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>307</v>
+        <v>1606</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>527</v>
@@ -12525,7 +12534,7 @@
         <v>861</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>308</v>
+        <v>1606</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>527</v>
@@ -12548,7 +12557,7 @@
         <v>862</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>309</v>
+        <v>1606</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>527</v>
@@ -12571,7 +12580,7 @@
         <v>863</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>310</v>
+        <v>1606</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>527</v>
@@ -12594,7 +12603,7 @@
         <v>864</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>311</v>
+        <v>1606</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>527</v>
@@ -12617,7 +12626,7 @@
         <v>865</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>312</v>
+        <v>1606</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>527</v>
@@ -12640,7 +12649,7 @@
         <v>866</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>313</v>
+        <v>1606</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>527</v>
@@ -12663,7 +12672,7 @@
         <v>867</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>12</v>
+        <v>1606</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>527</v>
@@ -12686,7 +12695,7 @@
         <v>868</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>314</v>
+        <v>1606</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>527</v>
@@ -12709,7 +12718,7 @@
         <v>869</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>315</v>
+        <v>1606</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>527</v>
@@ -12732,7 +12741,7 @@
         <v>870</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>316</v>
+        <v>1606</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>527</v>
@@ -12755,7 +12764,7 @@
         <v>871</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>317</v>
+        <v>1606</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>527</v>
@@ -12778,7 +12787,7 @@
         <v>872</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>318</v>
+        <v>1606</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>527</v>
@@ -12801,7 +12810,7 @@
         <v>873</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>319</v>
+        <v>1606</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>527</v>
@@ -12824,7 +12833,7 @@
         <v>874</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>320</v>
+        <v>1606</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>527</v>
@@ -12847,7 +12856,7 @@
         <v>875</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>321</v>
+        <v>1606</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>527</v>
@@ -12870,7 +12879,7 @@
         <v>876</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>322</v>
+        <v>1606</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>527</v>
@@ -12893,7 +12902,7 @@
         <v>877</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>323</v>
+        <v>1606</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>527</v>
@@ -12916,7 +12925,7 @@
         <v>878</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>324</v>
+        <v>1606</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>527</v>
@@ -12939,7 +12948,7 @@
         <v>879</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>325</v>
+        <v>1606</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>527</v>
@@ -12962,7 +12971,7 @@
         <v>880</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>326</v>
+        <v>1606</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>527</v>
@@ -12985,7 +12994,7 @@
         <v>881</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>327</v>
+        <v>1606</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>527</v>
@@ -13008,7 +13017,7 @@
         <v>882</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>328</v>
+        <v>1606</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>527</v>
@@ -13031,7 +13040,7 @@
         <v>883</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>329</v>
+        <v>1606</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>527</v>
@@ -13054,7 +13063,7 @@
         <v>884</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>330</v>
+        <v>1606</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>527</v>
@@ -13077,7 +13086,7 @@
         <v>885</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>331</v>
+        <v>1606</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>527</v>
@@ -13100,7 +13109,7 @@
         <v>886</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>332</v>
+        <v>1606</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>527</v>
@@ -13123,7 +13132,7 @@
         <v>887</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>333</v>
+        <v>1606</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>527</v>
@@ -13146,7 +13155,7 @@
         <v>888</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>334</v>
+        <v>1606</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>527</v>
@@ -13169,7 +13178,7 @@
         <v>889</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>335</v>
+        <v>1606</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>527</v>
@@ -13192,7 +13201,7 @@
         <v>890</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>336</v>
+        <v>1606</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>527</v>
@@ -13215,7 +13224,7 @@
         <v>891</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>337</v>
+        <v>1606</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>527</v>
@@ -13238,7 +13247,7 @@
         <v>892</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>338</v>
+        <v>1606</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>527</v>
@@ -13261,7 +13270,7 @@
         <v>893</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>339</v>
+        <v>1606</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>527</v>
@@ -13284,7 +13293,7 @@
         <v>894</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>340</v>
+        <v>1606</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>527</v>
@@ -13307,7 +13316,7 @@
         <v>895</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>341</v>
+        <v>1606</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>527</v>
@@ -13330,7 +13339,7 @@
         <v>896</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>342</v>
+        <v>1606</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>527</v>
@@ -13353,7 +13362,7 @@
         <v>897</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>343</v>
+        <v>1606</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>527</v>
@@ -13376,7 +13385,7 @@
         <v>898</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>344</v>
+        <v>1606</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>527</v>
@@ -13399,7 +13408,7 @@
         <v>899</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>345</v>
+        <v>1606</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>527</v>
@@ -13422,7 +13431,7 @@
         <v>900</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>346</v>
+        <v>1606</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>527</v>
@@ -13445,7 +13454,7 @@
         <v>901</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>347</v>
+        <v>1606</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>527</v>
@@ -13468,7 +13477,7 @@
         <v>902</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>348</v>
+        <v>1606</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>527</v>
@@ -13491,7 +13500,7 @@
         <v>903</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>349</v>
+        <v>1606</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>527</v>
@@ -13514,7 +13523,7 @@
         <v>904</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>350</v>
+        <v>1606</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>527</v>
@@ -13537,7 +13546,7 @@
         <v>905</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>310</v>
+        <v>1606</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>527</v>
@@ -13560,7 +13569,7 @@
         <v>906</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>351</v>
+        <v>1606</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>527</v>
@@ -13583,7 +13592,7 @@
         <v>907</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>352</v>
+        <v>1606</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>527</v>
@@ -13606,7 +13615,7 @@
         <v>908</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>353</v>
+        <v>1606</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>527</v>
@@ -13629,7 +13638,7 @@
         <v>909</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>354</v>
+        <v>1606</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>527</v>
@@ -13652,7 +13661,7 @@
         <v>910</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>355</v>
+        <v>1606</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>527</v>
@@ -13675,7 +13684,7 @@
         <v>911</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>356</v>
+        <v>1606</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>527</v>
@@ -13698,7 +13707,7 @@
         <v>912</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>357</v>
+        <v>1606</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>527</v>
@@ -13721,7 +13730,7 @@
         <v>913</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>358</v>
+        <v>1606</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>527</v>
@@ -13744,7 +13753,7 @@
         <v>914</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>359</v>
+        <v>1606</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>527</v>
@@ -13767,7 +13776,7 @@
         <v>915</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>360</v>
+        <v>1606</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>527</v>
@@ -13790,7 +13799,7 @@
         <v>916</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>361</v>
+        <v>1606</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>527</v>
@@ -13813,7 +13822,7 @@
         <v>917</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>362</v>
+        <v>1606</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>527</v>
@@ -13836,7 +13845,7 @@
         <v>918</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>363</v>
+        <v>1606</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>527</v>
@@ -13859,7 +13868,7 @@
         <v>919</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>364</v>
+        <v>1606</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>527</v>
@@ -13882,7 +13891,7 @@
         <v>920</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>365</v>
+        <v>1606</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>527</v>
@@ -13905,7 +13914,7 @@
         <v>921</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>366</v>
+        <v>1606</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>527</v>
@@ -13928,7 +13937,7 @@
         <v>922</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>367</v>
+        <v>1606</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>527</v>
@@ -13951,7 +13960,7 @@
         <v>923</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>368</v>
+        <v>1606</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>527</v>
@@ -13974,7 +13983,7 @@
         <v>924</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>369</v>
+        <v>1606</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>527</v>
@@ -13997,7 +14006,7 @@
         <v>925</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>370</v>
+        <v>1606</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>527</v>
@@ -14020,7 +14029,7 @@
         <v>926</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>371</v>
+        <v>1606</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>527</v>
@@ -14043,7 +14052,7 @@
         <v>927</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>372</v>
+        <v>1606</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>527</v>
@@ -14066,7 +14075,7 @@
         <v>928</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>373</v>
+        <v>1606</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>527</v>
@@ -14089,7 +14098,7 @@
         <v>929</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>374</v>
+        <v>1606</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>527</v>
@@ -14112,7 +14121,7 @@
         <v>930</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>375</v>
+        <v>1606</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>527</v>
@@ -14135,7 +14144,7 @@
         <v>931</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>342</v>
+        <v>1606</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>527</v>
@@ -14158,7 +14167,7 @@
         <v>932</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>376</v>
+        <v>1606</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>527</v>
@@ -14181,7 +14190,7 @@
         <v>933</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>377</v>
+        <v>1606</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>527</v>
@@ -14204,7 +14213,7 @@
         <v>934</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>378</v>
+        <v>1606</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>527</v>
@@ -14227,7 +14236,7 @@
         <v>935</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>379</v>
+        <v>1606</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>527</v>
@@ -14250,7 +14259,7 @@
         <v>936</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>380</v>
+        <v>1606</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>527</v>
@@ -14273,7 +14282,7 @@
         <v>937</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>381</v>
+        <v>1606</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>527</v>
@@ -14296,7 +14305,7 @@
         <v>938</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>382</v>
+        <v>1606</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>527</v>
@@ -14319,7 +14328,7 @@
         <v>939</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>383</v>
+        <v>1606</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>527</v>
@@ -14342,7 +14351,7 @@
         <v>940</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>384</v>
+        <v>1606</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>527</v>
@@ -14365,7 +14374,7 @@
         <v>941</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>385</v>
+        <v>1606</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>527</v>
@@ -14388,7 +14397,7 @@
         <v>942</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>386</v>
+        <v>1606</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>527</v>
@@ -14411,7 +14420,7 @@
         <v>943</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>387</v>
+        <v>1606</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>527</v>
@@ -14434,7 +14443,7 @@
         <v>944</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>388</v>
+        <v>1606</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>527</v>
@@ -14457,7 +14466,7 @@
         <v>945</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>389</v>
+        <v>1606</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>527</v>
@@ -14480,7 +14489,7 @@
         <v>946</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>390</v>
+        <v>1606</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>527</v>
@@ -14503,7 +14512,7 @@
         <v>947</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>391</v>
+        <v>1606</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>527</v>
@@ -14526,7 +14535,7 @@
         <v>948</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>392</v>
+        <v>1606</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>527</v>
@@ -14549,7 +14558,7 @@
         <v>949</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>393</v>
+        <v>1606</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>527</v>
@@ -14572,7 +14581,7 @@
         <v>950</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>394</v>
+        <v>1606</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>527</v>
@@ -14595,7 +14604,7 @@
         <v>951</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>395</v>
+        <v>1606</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>527</v>
@@ -14618,7 +14627,7 @@
         <v>952</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>396</v>
+        <v>1606</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>527</v>
@@ -14641,7 +14650,7 @@
         <v>953</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>397</v>
+        <v>1606</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>527</v>
@@ -14664,7 +14673,7 @@
         <v>954</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>398</v>
+        <v>1606</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>527</v>
@@ -14687,7 +14696,7 @@
         <v>955</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>399</v>
+        <v>1606</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>527</v>
@@ -14710,7 +14719,7 @@
         <v>956</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>400</v>
+        <v>1606</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>527</v>
@@ -14733,7 +14742,7 @@
         <v>957</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>401</v>
+        <v>1606</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>527</v>
@@ -14756,7 +14765,7 @@
         <v>958</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>402</v>
+        <v>1606</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>527</v>
@@ -14779,7 +14788,7 @@
         <v>959</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>403</v>
+        <v>1606</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>527</v>
@@ -14802,7 +14811,7 @@
         <v>960</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>404</v>
+        <v>1606</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>527</v>
@@ -14825,7 +14834,7 @@
         <v>961</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>405</v>
+        <v>1606</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>527</v>
@@ -14848,7 +14857,7 @@
         <v>962</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>406</v>
+        <v>1606</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>527</v>
@@ -14871,7 +14880,7 @@
         <v>963</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>407</v>
+        <v>1606</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>527</v>
@@ -14894,7 +14903,7 @@
         <v>964</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>408</v>
+        <v>1606</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>527</v>
@@ -14917,7 +14926,7 @@
         <v>965</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>409</v>
+        <v>1606</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>527</v>
@@ -14940,7 +14949,7 @@
         <v>966</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>410</v>
+        <v>1606</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>527</v>
@@ -14963,7 +14972,7 @@
         <v>967</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>411</v>
+        <v>1606</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>527</v>
@@ -14986,7 +14995,7 @@
         <v>968</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>412</v>
+        <v>1606</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>527</v>
@@ -15009,7 +15018,7 @@
         <v>969</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>413</v>
+        <v>1606</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>527</v>
@@ -15032,7 +15041,7 @@
         <v>970</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>414</v>
+        <v>1606</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>527</v>
@@ -15055,7 +15064,7 @@
         <v>971</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>415</v>
+        <v>1606</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>527</v>
@@ -15078,7 +15087,7 @@
         <v>972</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>416</v>
+        <v>1606</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>527</v>
@@ -15101,7 +15110,7 @@
         <v>973</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>417</v>
+        <v>1606</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>527</v>
@@ -15124,7 +15133,7 @@
         <v>974</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>418</v>
+        <v>1606</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>527</v>
@@ -15147,7 +15156,7 @@
         <v>975</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>419</v>
+        <v>1606</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>527</v>
@@ -15170,7 +15179,7 @@
         <v>976</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>420</v>
+        <v>1606</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>527</v>
@@ -15193,7 +15202,7 @@
         <v>977</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>421</v>
+        <v>1606</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>527</v>
@@ -15216,7 +15225,7 @@
         <v>978</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>422</v>
+        <v>1606</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>527</v>
@@ -15239,7 +15248,7 @@
         <v>979</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>423</v>
+        <v>1606</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>527</v>
@@ -15262,7 +15271,7 @@
         <v>980</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>424</v>
+        <v>1606</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>527</v>
@@ -15285,7 +15294,7 @@
         <v>981</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>425</v>
+        <v>1606</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>527</v>
@@ -15308,7 +15317,7 @@
         <v>982</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>426</v>
+        <v>1606</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>527</v>
@@ -15331,7 +15340,7 @@
         <v>983</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>427</v>
+        <v>1606</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>527</v>
@@ -15354,7 +15363,7 @@
         <v>984</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>428</v>
+        <v>1606</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>527</v>
@@ -15377,7 +15386,7 @@
         <v>985</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>429</v>
+        <v>1606</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>527</v>
@@ -15400,7 +15409,7 @@
         <v>986</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>430</v>
+        <v>1606</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>527</v>
@@ -15423,7 +15432,7 @@
         <v>987</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>431</v>
+        <v>1606</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>527</v>
@@ -15446,7 +15455,7 @@
         <v>988</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>432</v>
+        <v>1606</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>527</v>
@@ -15469,7 +15478,7 @@
         <v>989</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>433</v>
+        <v>1606</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>527</v>
@@ -15492,7 +15501,7 @@
         <v>990</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>434</v>
+        <v>1606</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>527</v>
@@ -15515,7 +15524,7 @@
         <v>991</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>435</v>
+        <v>1606</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>527</v>
@@ -15538,7 +15547,7 @@
         <v>992</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>436</v>
+        <v>1606</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>527</v>
@@ -15561,7 +15570,7 @@
         <v>993</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>437</v>
+        <v>1606</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>527</v>
@@ -15584,7 +15593,7 @@
         <v>994</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>438</v>
+        <v>1606</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>527</v>
@@ -15607,7 +15616,7 @@
         <v>995</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>439</v>
+        <v>1606</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>527</v>
@@ -15630,7 +15639,7 @@
         <v>996</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>440</v>
+        <v>1606</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>527</v>
@@ -15653,7 +15662,7 @@
         <v>997</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>441</v>
+        <v>1606</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>527</v>
@@ -15676,7 +15685,7 @@
         <v>998</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>442</v>
+        <v>1606</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>527</v>
@@ -15699,7 +15708,7 @@
         <v>999</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>443</v>
+        <v>1606</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>527</v>
@@ -15722,7 +15731,7 @@
         <v>1000</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>444</v>
+        <v>1606</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>527</v>
@@ -15745,7 +15754,7 @@
         <v>1001</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>445</v>
+        <v>1606</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>527</v>
@@ -15768,7 +15777,7 @@
         <v>1002</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>446</v>
+        <v>1606</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>527</v>
@@ -15791,7 +15800,7 @@
         <v>1003</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>447</v>
+        <v>1606</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>527</v>
@@ -15814,7 +15823,7 @@
         <v>1004</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>448</v>
+        <v>1606</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>527</v>
@@ -15837,7 +15846,7 @@
         <v>1005</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>449</v>
+        <v>1606</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>527</v>
@@ -15860,7 +15869,7 @@
         <v>1006</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>450</v>
+        <v>1606</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>527</v>
@@ -15883,7 +15892,7 @@
         <v>1007</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>451</v>
+        <v>1606</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>527</v>
@@ -15906,7 +15915,7 @@
         <v>1008</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>452</v>
+        <v>1606</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>527</v>
@@ -15929,7 +15938,7 @@
         <v>1009</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>453</v>
+        <v>1606</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>527</v>
@@ -15952,7 +15961,7 @@
         <v>1010</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>454</v>
+        <v>1606</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>527</v>
@@ -15975,7 +15984,7 @@
         <v>1011</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>455</v>
+        <v>1606</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>527</v>
@@ -15998,7 +16007,7 @@
         <v>1012</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>456</v>
+        <v>1606</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>527</v>
@@ -16021,7 +16030,7 @@
         <v>1013</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>457</v>
+        <v>1606</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>527</v>
@@ -16044,7 +16053,7 @@
         <v>1014</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>458</v>
+        <v>1606</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>527</v>
@@ -16067,7 +16076,7 @@
         <v>1015</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>459</v>
+        <v>1606</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>527</v>
@@ -16090,7 +16099,7 @@
         <v>1016</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>460</v>
+        <v>1606</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>527</v>
@@ -16113,7 +16122,7 @@
         <v>1017</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>461</v>
+        <v>1606</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>527</v>
@@ -16136,7 +16145,7 @@
         <v>1018</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>314</v>
+        <v>1606</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>527</v>
@@ -16159,7 +16168,7 @@
         <v>1019</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>462</v>
+        <v>1606</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>546</v>
@@ -16182,7 +16191,7 @@
         <v>1020</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>463</v>
+        <v>1606</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>546</v>
@@ -16205,7 +16214,7 @@
         <v>1021</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>464</v>
+        <v>1606</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>546</v>
@@ -16228,7 +16237,7 @@
         <v>1022</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>465</v>
+        <v>1606</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>546</v>
@@ -16251,7 +16260,7 @@
         <v>1023</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>466</v>
+        <v>1606</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>546</v>
@@ -16274,7 +16283,7 @@
         <v>1024</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>467</v>
+        <v>1606</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>546</v>
@@ -16297,7 +16306,7 @@
         <v>1025</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>468</v>
+        <v>1606</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>546</v>
@@ -16320,7 +16329,7 @@
         <v>1026</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>469</v>
+        <v>1606</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>546</v>
@@ -16343,7 +16352,7 @@
         <v>1027</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>470</v>
+        <v>1606</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>546</v>
@@ -16366,7 +16375,7 @@
         <v>1028</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>471</v>
+        <v>1606</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>546</v>
@@ -16389,7 +16398,7 @@
         <v>1029</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>472</v>
+        <v>1606</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>546</v>
@@ -16412,7 +16421,7 @@
         <v>1030</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>438</v>
+        <v>1606</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>546</v>
@@ -16435,7 +16444,7 @@
         <v>1031</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>473</v>
+        <v>1606</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>546</v>
@@ -16458,7 +16467,7 @@
         <v>1032</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>474</v>
+        <v>1606</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>546</v>
@@ -16481,7 +16490,7 @@
         <v>1033</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>475</v>
+        <v>1606</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>546</v>
@@ -16504,7 +16513,7 @@
         <v>1034</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>476</v>
+        <v>1606</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>546</v>
@@ -16527,7 +16536,7 @@
         <v>1035</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>477</v>
+        <v>1606</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>546</v>
@@ -16550,7 +16559,7 @@
         <v>1036</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>478</v>
+        <v>1606</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>546</v>
@@ -16573,7 +16582,7 @@
         <v>1037</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>479</v>
+        <v>1606</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>546</v>
@@ -16596,7 +16605,7 @@
         <v>1038</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>97</v>
+        <v>1606</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>546</v>
@@ -16619,7 +16628,7 @@
         <v>1039</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>480</v>
+        <v>1606</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>546</v>
@@ -16642,7 +16651,7 @@
         <v>1040</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>481</v>
+        <v>1606</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>546</v>
@@ -16665,7 +16674,7 @@
         <v>1041</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>482</v>
+        <v>1606</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>546</v>
@@ -16688,7 +16697,7 @@
         <v>1042</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>483</v>
+        <v>1606</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>546</v>
@@ -16711,7 +16720,7 @@
         <v>1043</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>484</v>
+        <v>1606</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>546</v>
@@ -16734,7 +16743,7 @@
         <v>1044</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>318</v>
+        <v>1606</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>546</v>
@@ -16757,7 +16766,7 @@
         <v>1045</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>379</v>
+        <v>1606</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>546</v>
@@ -16780,7 +16789,7 @@
         <v>1046</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>485</v>
+        <v>1606</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>546</v>
@@ -16803,7 +16812,7 @@
         <v>1047</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>486</v>
+        <v>1606</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>546</v>
@@ -16826,7 +16835,7 @@
         <v>1048</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>487</v>
+        <v>1606</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>546</v>
@@ -16849,7 +16858,7 @@
         <v>1049</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>488</v>
+        <v>1606</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>546</v>
@@ -16872,7 +16881,7 @@
         <v>1050</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>489</v>
+        <v>1606</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>546</v>
@@ -16895,7 +16904,7 @@
         <v>1051</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>490</v>
+        <v>1606</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>546</v>
@@ -16918,7 +16927,7 @@
         <v>1052</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>491</v>
+        <v>1606</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>546</v>
@@ -16941,7 +16950,7 @@
         <v>1053</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>492</v>
+        <v>1606</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>546</v>
@@ -16964,7 +16973,7 @@
         <v>1054</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>493</v>
+        <v>1606</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>546</v>
@@ -16987,7 +16996,7 @@
         <v>1055</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>494</v>
+        <v>1606</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>546</v>
@@ -17010,7 +17019,7 @@
         <v>1056</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>495</v>
+        <v>1606</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>546</v>
@@ -17033,7 +17042,7 @@
         <v>1057</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>352</v>
+        <v>1606</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>546</v>
@@ -17056,7 +17065,7 @@
         <v>1058</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>345</v>
+        <v>1606</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>546</v>
@@ -17079,7 +17088,7 @@
         <v>1059</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>238</v>
+        <v>1606</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>546</v>
@@ -17102,7 +17111,7 @@
         <v>1060</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>496</v>
+        <v>1606</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>546</v>
@@ -17125,7 +17134,7 @@
         <v>1061</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>497</v>
+        <v>1606</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>546</v>
@@ -17148,7 +17157,7 @@
         <v>1062</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>498</v>
+        <v>1606</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>546</v>
@@ -17171,7 +17180,7 @@
         <v>1063</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>499</v>
+        <v>1606</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>546</v>
@@ -17194,7 +17203,7 @@
         <v>1064</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>236</v>
+        <v>1606</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>546</v>
@@ -17217,7 +17226,7 @@
         <v>1065</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>500</v>
+        <v>1606</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>546</v>
@@ -17240,7 +17249,7 @@
         <v>1066</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>501</v>
+        <v>1606</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>546</v>
@@ -17263,7 +17272,7 @@
         <v>1067</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>502</v>
+        <v>1606</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>546</v>
@@ -17286,7 +17295,7 @@
         <v>1068</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>503</v>
+        <v>1606</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>546</v>
@@ -17309,7 +17318,7 @@
         <v>1069</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>504</v>
+        <v>1606</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>546</v>
@@ -17332,7 +17341,7 @@
         <v>1070</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>505</v>
+        <v>1606</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>546</v>
@@ -17355,7 +17364,7 @@
         <v>1071</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>304</v>
+        <v>1606</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>546</v>
@@ -17378,7 +17387,7 @@
         <v>1072</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>506</v>
+        <v>1606</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>546</v>
@@ -17401,7 +17410,7 @@
         <v>1073</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>507</v>
+        <v>1606</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>546</v>
@@ -17424,7 +17433,7 @@
         <v>1074</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>508</v>
+        <v>1606</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>546</v>
@@ -17447,7 +17456,7 @@
         <v>1075</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>509</v>
+        <v>1606</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>546</v>
@@ -17469,7 +17478,9 @@
       <c r="A531" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B531" s="1"/>
+      <c r="B531" s="1" t="s">
+        <v>1606</v>
+      </c>
       <c r="C531" s="1" t="s">
         <v>546</v>
       </c>
@@ -17486,7 +17497,7 @@
         <v>1077</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>496</v>
+        <v>1606</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>546</v>
@@ -17509,7 +17520,7 @@
         <v>1078</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>510</v>
+        <v>1606</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>546</v>
@@ -17532,7 +17543,7 @@
         <v>1079</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>511</v>
+        <v>1606</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>546</v>
@@ -17555,7 +17566,7 @@
         <v>1080</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>512</v>
+        <v>1606</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>546</v>
@@ -17578,7 +17589,7 @@
         <v>1081</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>513</v>
+        <v>1606</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>546</v>
@@ -17601,7 +17612,7 @@
         <v>1082</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>514</v>
+        <v>1606</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>546</v>
@@ -17624,7 +17635,7 @@
         <v>1083</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>161</v>
+        <v>1606</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>546</v>
@@ -17647,7 +17658,7 @@
         <v>1084</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>222</v>
+        <v>1606</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>546</v>
@@ -17670,7 +17681,7 @@
         <v>1085</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>515</v>
+        <v>1606</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>546</v>
@@ -17693,7 +17704,7 @@
         <v>1086</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>88</v>
+        <v>1606</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>546</v>
@@ -17716,7 +17727,7 @@
         <v>1087</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>516</v>
+        <v>1606</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>546</v>
@@ -17739,7 +17750,7 @@
         <v>1088</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>517</v>
+        <v>1606</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>546</v>
@@ -17762,7 +17773,7 @@
         <v>1089</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>513</v>
+        <v>1606</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>546</v>

--- a/raw_data/Hebrew_WG/[Hebrew_WG].xlsx
+++ b/raw_data/Hebrew_WG/[Hebrew_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1740" windowWidth="19200" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3420,9 +3420,6 @@
     <t>They</t>
   </si>
   <si>
-    <t>Wen Wen</t>
-  </si>
-  <si>
     <t>What what</t>
   </si>
   <si>
@@ -4840,6 +4837,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>yum yum</t>
   </si>
 </sst>
 </file>
@@ -4900,8 +4900,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4931,7 +4935,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4939,6 +4943,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4946,6 +4952,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5277,8 +5285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="B544" sqref="B544"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5319,7 +5327,7 @@
         <v>526</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5327,7 +5335,7 @@
         <v>547</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1090</v>
@@ -5345,7 +5353,7 @@
         <v>548</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1090</v>
@@ -5363,7 +5371,7 @@
         <v>549</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1090</v>
@@ -5381,7 +5389,7 @@
         <v>550</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1091</v>
@@ -5404,7 +5412,7 @@
         <v>551</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1091</v>
@@ -5427,7 +5435,7 @@
         <v>552</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1091</v>
@@ -5450,7 +5458,7 @@
         <v>553</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1091</v>
@@ -5473,7 +5481,7 @@
         <v>554</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1091</v>
@@ -5496,7 +5504,7 @@
         <v>555</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1091</v>
@@ -5519,7 +5527,7 @@
         <v>556</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1091</v>
@@ -5542,7 +5550,7 @@
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1091</v>
@@ -5565,7 +5573,7 @@
         <v>558</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1091</v>
@@ -5588,7 +5596,7 @@
         <v>559</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1091</v>
@@ -5611,7 +5619,7 @@
         <v>560</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1091</v>
@@ -5634,7 +5642,7 @@
         <v>561</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1091</v>
@@ -5657,7 +5665,7 @@
         <v>562</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1091</v>
@@ -5680,7 +5688,7 @@
         <v>563</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1091</v>
@@ -5703,7 +5711,7 @@
         <v>564</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1091</v>
@@ -5726,7 +5734,7 @@
         <v>565</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1091</v>
@@ -5749,7 +5757,7 @@
         <v>566</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1091</v>
@@ -5772,7 +5780,7 @@
         <v>567</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1091</v>
@@ -5795,7 +5803,7 @@
         <v>568</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1091</v>
@@ -5818,7 +5826,7 @@
         <v>569</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1091</v>
@@ -5841,7 +5849,7 @@
         <v>570</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1091</v>
@@ -5864,7 +5872,7 @@
         <v>571</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1091</v>
@@ -5887,7 +5895,7 @@
         <v>572</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1091</v>
@@ -5910,7 +5918,7 @@
         <v>573</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1091</v>
@@ -5933,7 +5941,7 @@
         <v>574</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1091</v>
@@ -5956,7 +5964,7 @@
         <v>575</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1091</v>
@@ -5979,7 +5987,7 @@
         <v>576</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>527</v>
@@ -6002,7 +6010,7 @@
         <v>577</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>527</v>
@@ -6025,7 +6033,7 @@
         <v>578</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>527</v>
@@ -6048,7 +6056,7 @@
         <v>579</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>527</v>
@@ -6071,7 +6079,7 @@
         <v>580</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>527</v>
@@ -6094,7 +6102,7 @@
         <v>581</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>527</v>
@@ -6117,7 +6125,7 @@
         <v>582</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>527</v>
@@ -6140,7 +6148,7 @@
         <v>583</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>527</v>
@@ -6155,7 +6163,7 @@
         <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>1133</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6163,7 +6171,7 @@
         <v>584</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>527</v>
@@ -6178,7 +6186,7 @@
         <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6186,7 +6194,7 @@
         <v>585</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>527</v>
@@ -6201,7 +6209,7 @@
         <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6209,7 +6217,7 @@
         <v>586</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>527</v>
@@ -6224,7 +6232,7 @@
         <v>36</v>
       </c>
       <c r="I41" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6232,7 +6240,7 @@
         <v>587</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>527</v>
@@ -6247,7 +6255,7 @@
         <v>37</v>
       </c>
       <c r="I42" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6255,7 +6263,7 @@
         <v>588</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>527</v>
@@ -6270,7 +6278,7 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6278,7 +6286,7 @@
         <v>589</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>527</v>
@@ -6293,7 +6301,7 @@
         <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6301,7 +6309,7 @@
         <v>590</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>527</v>
@@ -6316,7 +6324,7 @@
         <v>40</v>
       </c>
       <c r="I45" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6324,7 +6332,7 @@
         <v>591</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>527</v>
@@ -6339,7 +6347,7 @@
         <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6347,7 +6355,7 @@
         <v>592</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>527</v>
@@ -6362,7 +6370,7 @@
         <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -6370,7 +6378,7 @@
         <v>593</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>527</v>
@@ -6385,7 +6393,7 @@
         <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6393,7 +6401,7 @@
         <v>594</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>527</v>
@@ -6408,7 +6416,7 @@
         <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6416,7 +6424,7 @@
         <v>595</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>527</v>
@@ -6431,7 +6439,7 @@
         <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6439,7 +6447,7 @@
         <v>596</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>527</v>
@@ -6454,7 +6462,7 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6462,7 +6470,7 @@
         <v>597</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>527</v>
@@ -6477,7 +6485,7 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -6485,7 +6493,7 @@
         <v>598</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>527</v>
@@ -6500,7 +6508,7 @@
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6508,7 +6516,7 @@
         <v>599</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>527</v>
@@ -6523,7 +6531,7 @@
         <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -6531,7 +6539,7 @@
         <v>600</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>527</v>
@@ -6546,7 +6554,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -6554,7 +6562,7 @@
         <v>601</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>527</v>
@@ -6569,7 +6577,7 @@
         <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -6577,7 +6585,7 @@
         <v>602</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>527</v>
@@ -6592,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -6600,7 +6608,7 @@
         <v>603</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>527</v>
@@ -6615,7 +6623,7 @@
         <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -6623,7 +6631,7 @@
         <v>604</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>527</v>
@@ -6638,7 +6646,7 @@
         <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -6646,7 +6654,7 @@
         <v>605</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>527</v>
@@ -6661,7 +6669,7 @@
         <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6669,7 +6677,7 @@
         <v>606</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>527</v>
@@ -6684,7 +6692,7 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6692,7 +6700,7 @@
         <v>607</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>527</v>
@@ -6707,7 +6715,7 @@
         <v>57</v>
       </c>
       <c r="I62" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6715,7 +6723,7 @@
         <v>608</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>527</v>
@@ -6730,7 +6738,7 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6738,7 +6746,7 @@
         <v>609</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>527</v>
@@ -6753,7 +6761,7 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6761,7 +6769,7 @@
         <v>610</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>527</v>
@@ -6776,7 +6784,7 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6784,7 +6792,7 @@
         <v>611</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>527</v>
@@ -6799,7 +6807,7 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6807,7 +6815,7 @@
         <v>612</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>527</v>
@@ -6822,7 +6830,7 @@
         <v>62</v>
       </c>
       <c r="I67" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6830,7 +6838,7 @@
         <v>613</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>527</v>
@@ -6845,7 +6853,7 @@
         <v>63</v>
       </c>
       <c r="I68" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6853,7 +6861,7 @@
         <v>614</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>527</v>
@@ -6868,7 +6876,7 @@
         <v>64</v>
       </c>
       <c r="I69" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6876,7 +6884,7 @@
         <v>615</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>527</v>
@@ -6891,7 +6899,7 @@
         <v>65</v>
       </c>
       <c r="I70" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6899,7 +6907,7 @@
         <v>616</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>527</v>
@@ -6914,7 +6922,7 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6922,7 +6930,7 @@
         <v>617</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>527</v>
@@ -6937,7 +6945,7 @@
         <v>67</v>
       </c>
       <c r="I72" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -6945,7 +6953,7 @@
         <v>618</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>527</v>
@@ -6960,7 +6968,7 @@
         <v>68</v>
       </c>
       <c r="I73" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -6968,7 +6976,7 @@
         <v>619</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>527</v>
@@ -6983,7 +6991,7 @@
         <v>69</v>
       </c>
       <c r="I74" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6991,7 +6999,7 @@
         <v>620</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>527</v>
@@ -7006,7 +7014,7 @@
         <v>70</v>
       </c>
       <c r="I75" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -7014,7 +7022,7 @@
         <v>621</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>527</v>
@@ -7029,7 +7037,7 @@
         <v>71</v>
       </c>
       <c r="I76" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -7037,7 +7045,7 @@
         <v>622</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>527</v>
@@ -7052,7 +7060,7 @@
         <v>72</v>
       </c>
       <c r="I77" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7060,7 +7068,7 @@
         <v>623</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>527</v>
@@ -7075,7 +7083,7 @@
         <v>73</v>
       </c>
       <c r="I78" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7083,7 +7091,7 @@
         <v>624</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>527</v>
@@ -7098,7 +7106,7 @@
         <v>74</v>
       </c>
       <c r="I79" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7106,7 +7114,7 @@
         <v>625</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>527</v>
@@ -7121,7 +7129,7 @@
         <v>75</v>
       </c>
       <c r="I80" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7129,7 +7137,7 @@
         <v>626</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>527</v>
@@ -7144,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="I81" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7152,7 +7160,7 @@
         <v>627</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>527</v>
@@ -7167,7 +7175,7 @@
         <v>77</v>
       </c>
       <c r="I82" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7175,7 +7183,7 @@
         <v>628</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>527</v>
@@ -7190,7 +7198,7 @@
         <v>78</v>
       </c>
       <c r="I83" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7198,7 +7206,7 @@
         <v>629</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>527</v>
@@ -7213,7 +7221,7 @@
         <v>79</v>
       </c>
       <c r="I84" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7221,7 +7229,7 @@
         <v>630</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>527</v>
@@ -7236,7 +7244,7 @@
         <v>80</v>
       </c>
       <c r="I85" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7244,7 +7252,7 @@
         <v>631</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>527</v>
@@ -7259,7 +7267,7 @@
         <v>81</v>
       </c>
       <c r="I86" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7267,7 +7275,7 @@
         <v>632</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>527</v>
@@ -7282,7 +7290,7 @@
         <v>82</v>
       </c>
       <c r="I87" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7290,7 +7298,7 @@
         <v>633</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>527</v>
@@ -7305,7 +7313,7 @@
         <v>83</v>
       </c>
       <c r="I88" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7313,7 +7321,7 @@
         <v>634</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>527</v>
@@ -7328,7 +7336,7 @@
         <v>84</v>
       </c>
       <c r="I89" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7336,7 +7344,7 @@
         <v>635</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>527</v>
@@ -7351,7 +7359,7 @@
         <v>85</v>
       </c>
       <c r="I90" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -7359,7 +7367,7 @@
         <v>636</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>527</v>
@@ -7374,7 +7382,7 @@
         <v>86</v>
       </c>
       <c r="I91" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -7382,7 +7390,7 @@
         <v>637</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>527</v>
@@ -7397,7 +7405,7 @@
         <v>87</v>
       </c>
       <c r="I92" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -7405,7 +7413,7 @@
         <v>638</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>527</v>
@@ -7420,7 +7428,7 @@
         <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -7428,7 +7436,7 @@
         <v>639</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>527</v>
@@ -7443,7 +7451,7 @@
         <v>89</v>
       </c>
       <c r="I94" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7451,7 +7459,7 @@
         <v>640</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>527</v>
@@ -7466,7 +7474,7 @@
         <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -7474,7 +7482,7 @@
         <v>641</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>527</v>
@@ -7489,7 +7497,7 @@
         <v>91</v>
       </c>
       <c r="I96" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -7497,7 +7505,7 @@
         <v>642</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>527</v>
@@ -7512,7 +7520,7 @@
         <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7520,7 +7528,7 @@
         <v>643</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>527</v>
@@ -7535,7 +7543,7 @@
         <v>93</v>
       </c>
       <c r="I98" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -7543,7 +7551,7 @@
         <v>644</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>527</v>
@@ -7558,7 +7566,7 @@
         <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7566,7 +7574,7 @@
         <v>645</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>527</v>
@@ -7581,7 +7589,7 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7589,7 +7597,7 @@
         <v>646</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>527</v>
@@ -7604,7 +7612,7 @@
         <v>96</v>
       </c>
       <c r="I101" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7612,7 +7620,7 @@
         <v>647</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>527</v>
@@ -7627,7 +7635,7 @@
         <v>97</v>
       </c>
       <c r="I102" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7635,7 +7643,7 @@
         <v>648</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>527</v>
@@ -7650,7 +7658,7 @@
         <v>98</v>
       </c>
       <c r="I103" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7658,7 +7666,7 @@
         <v>649</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>527</v>
@@ -7673,7 +7681,7 @@
         <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7681,7 +7689,7 @@
         <v>650</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>527</v>
@@ -7696,7 +7704,7 @@
         <v>100</v>
       </c>
       <c r="I105" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7704,7 +7712,7 @@
         <v>651</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>527</v>
@@ -7719,7 +7727,7 @@
         <v>101</v>
       </c>
       <c r="I106" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7727,7 +7735,7 @@
         <v>652</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>527</v>
@@ -7742,7 +7750,7 @@
         <v>102</v>
       </c>
       <c r="I107" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7750,7 +7758,7 @@
         <v>653</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>527</v>
@@ -7765,7 +7773,7 @@
         <v>103</v>
       </c>
       <c r="I108" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7773,7 +7781,7 @@
         <v>654</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>527</v>
@@ -7788,7 +7796,7 @@
         <v>104</v>
       </c>
       <c r="I109" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7796,7 +7804,7 @@
         <v>655</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>527</v>
@@ -7811,7 +7819,7 @@
         <v>105</v>
       </c>
       <c r="I110" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7819,7 +7827,7 @@
         <v>656</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>527</v>
@@ -7834,7 +7842,7 @@
         <v>106</v>
       </c>
       <c r="I111" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7842,7 +7850,7 @@
         <v>657</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>527</v>
@@ -7857,7 +7865,7 @@
         <v>107</v>
       </c>
       <c r="I112" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7865,7 +7873,7 @@
         <v>658</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>527</v>
@@ -7880,7 +7888,7 @@
         <v>108</v>
       </c>
       <c r="I113" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7888,7 +7896,7 @@
         <v>659</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>527</v>
@@ -7903,7 +7911,7 @@
         <v>109</v>
       </c>
       <c r="I114" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7911,7 +7919,7 @@
         <v>660</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>527</v>
@@ -7926,7 +7934,7 @@
         <v>110</v>
       </c>
       <c r="I115" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7934,7 +7942,7 @@
         <v>661</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>527</v>
@@ -7949,7 +7957,7 @@
         <v>111</v>
       </c>
       <c r="I116" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7957,7 +7965,7 @@
         <v>662</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>527</v>
@@ -7972,7 +7980,7 @@
         <v>112</v>
       </c>
       <c r="I117" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7980,7 +7988,7 @@
         <v>663</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>527</v>
@@ -7995,7 +8003,7 @@
         <v>113</v>
       </c>
       <c r="I118" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -8003,7 +8011,7 @@
         <v>664</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>527</v>
@@ -8018,7 +8026,7 @@
         <v>114</v>
       </c>
       <c r="I119" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8026,7 +8034,7 @@
         <v>665</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>527</v>
@@ -8041,7 +8049,7 @@
         <v>115</v>
       </c>
       <c r="I120" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -8049,7 +8057,7 @@
         <v>666</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>527</v>
@@ -8064,7 +8072,7 @@
         <v>116</v>
       </c>
       <c r="I121" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -8072,7 +8080,7 @@
         <v>667</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>527</v>
@@ -8087,7 +8095,7 @@
         <v>117</v>
       </c>
       <c r="I122" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -8095,7 +8103,7 @@
         <v>668</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>527</v>
@@ -8110,7 +8118,7 @@
         <v>118</v>
       </c>
       <c r="I123" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -8118,7 +8126,7 @@
         <v>669</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>527</v>
@@ -8133,7 +8141,7 @@
         <v>119</v>
       </c>
       <c r="I124" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -8141,7 +8149,7 @@
         <v>670</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>527</v>
@@ -8156,7 +8164,7 @@
         <v>120</v>
       </c>
       <c r="I125" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -8164,7 +8172,7 @@
         <v>671</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>527</v>
@@ -8179,7 +8187,7 @@
         <v>121</v>
       </c>
       <c r="I126" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8187,7 +8195,7 @@
         <v>672</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>527</v>
@@ -8202,7 +8210,7 @@
         <v>122</v>
       </c>
       <c r="I127" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -8210,7 +8218,7 @@
         <v>673</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>527</v>
@@ -8225,7 +8233,7 @@
         <v>123</v>
       </c>
       <c r="I128" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8233,7 +8241,7 @@
         <v>674</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>527</v>
@@ -8248,7 +8256,7 @@
         <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8256,7 +8264,7 @@
         <v>675</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>527</v>
@@ -8271,7 +8279,7 @@
         <v>125</v>
       </c>
       <c r="I130" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -8279,7 +8287,7 @@
         <v>676</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>527</v>
@@ -8294,7 +8302,7 @@
         <v>126</v>
       </c>
       <c r="I131" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -8302,7 +8310,7 @@
         <v>677</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>527</v>
@@ -8317,7 +8325,7 @@
         <v>127</v>
       </c>
       <c r="I132" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8325,7 +8333,7 @@
         <v>678</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>527</v>
@@ -8340,7 +8348,7 @@
         <v>128</v>
       </c>
       <c r="I133" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -8348,7 +8356,7 @@
         <v>679</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>527</v>
@@ -8363,7 +8371,7 @@
         <v>129</v>
       </c>
       <c r="I134" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -8371,7 +8379,7 @@
         <v>680</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>527</v>
@@ -8386,7 +8394,7 @@
         <v>130</v>
       </c>
       <c r="I135" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -8394,7 +8402,7 @@
         <v>681</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>527</v>
@@ -8409,7 +8417,7 @@
         <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -8417,7 +8425,7 @@
         <v>682</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>527</v>
@@ -8432,7 +8440,7 @@
         <v>132</v>
       </c>
       <c r="I137" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8440,7 +8448,7 @@
         <v>683</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>527</v>
@@ -8455,7 +8463,7 @@
         <v>133</v>
       </c>
       <c r="I138" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8463,7 +8471,7 @@
         <v>684</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>527</v>
@@ -8478,7 +8486,7 @@
         <v>134</v>
       </c>
       <c r="I139" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8486,7 +8494,7 @@
         <v>685</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>527</v>
@@ -8501,7 +8509,7 @@
         <v>135</v>
       </c>
       <c r="I140" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8509,7 +8517,7 @@
         <v>686</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>527</v>
@@ -8524,7 +8532,7 @@
         <v>136</v>
       </c>
       <c r="I141" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8532,7 +8540,7 @@
         <v>687</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>527</v>
@@ -8547,7 +8555,7 @@
         <v>49</v>
       </c>
       <c r="I142" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8555,7 +8563,7 @@
         <v>688</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>527</v>
@@ -8570,7 +8578,7 @@
         <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8578,7 +8586,7 @@
         <v>689</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>527</v>
@@ -8593,7 +8601,7 @@
         <v>138</v>
       </c>
       <c r="I144" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8601,7 +8609,7 @@
         <v>690</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>527</v>
@@ -8616,7 +8624,7 @@
         <v>139</v>
       </c>
       <c r="I145" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8624,7 +8632,7 @@
         <v>691</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>527</v>
@@ -8639,7 +8647,7 @@
         <v>140</v>
       </c>
       <c r="I146" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8647,7 +8655,7 @@
         <v>692</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>527</v>
@@ -8662,7 +8670,7 @@
         <v>141</v>
       </c>
       <c r="I147" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8670,7 +8678,7 @@
         <v>693</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>527</v>
@@ -8685,7 +8693,7 @@
         <v>142</v>
       </c>
       <c r="I148" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8693,7 +8701,7 @@
         <v>694</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>527</v>
@@ -8708,7 +8716,7 @@
         <v>143</v>
       </c>
       <c r="I149" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8716,7 +8724,7 @@
         <v>695</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>527</v>
@@ -8731,7 +8739,7 @@
         <v>144</v>
       </c>
       <c r="I150" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8739,7 +8747,7 @@
         <v>696</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>527</v>
@@ -8754,7 +8762,7 @@
         <v>145</v>
       </c>
       <c r="I151" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8762,7 +8770,7 @@
         <v>697</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>527</v>
@@ -8777,7 +8785,7 @@
         <v>146</v>
       </c>
       <c r="I152" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8785,7 +8793,7 @@
         <v>698</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>527</v>
@@ -8800,7 +8808,7 @@
         <v>147</v>
       </c>
       <c r="I153" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8808,7 +8816,7 @@
         <v>699</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>527</v>
@@ -8823,7 +8831,7 @@
         <v>148</v>
       </c>
       <c r="I154" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8831,7 +8839,7 @@
         <v>700</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>527</v>
@@ -8846,7 +8854,7 @@
         <v>149</v>
       </c>
       <c r="I155" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8854,7 +8862,7 @@
         <v>701</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>527</v>
@@ -8869,7 +8877,7 @@
         <v>150</v>
       </c>
       <c r="I156" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8877,7 +8885,7 @@
         <v>702</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>527</v>
@@ -8892,7 +8900,7 @@
         <v>151</v>
       </c>
       <c r="I157" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -8900,7 +8908,7 @@
         <v>703</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>527</v>
@@ -8915,7 +8923,7 @@
         <v>152</v>
       </c>
       <c r="I158" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8923,7 +8931,7 @@
         <v>704</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>527</v>
@@ -8938,7 +8946,7 @@
         <v>153</v>
       </c>
       <c r="I159" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8946,7 +8954,7 @@
         <v>705</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>527</v>
@@ -8961,7 +8969,7 @@
         <v>154</v>
       </c>
       <c r="I160" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8969,7 +8977,7 @@
         <v>706</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>527</v>
@@ -8984,7 +8992,7 @@
         <v>155</v>
       </c>
       <c r="I161" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8992,7 +9000,7 @@
         <v>707</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>527</v>
@@ -9007,7 +9015,7 @@
         <v>156</v>
       </c>
       <c r="I162" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -9015,7 +9023,7 @@
         <v>708</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>527</v>
@@ -9030,7 +9038,7 @@
         <v>157</v>
       </c>
       <c r="I163" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -9038,7 +9046,7 @@
         <v>709</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>527</v>
@@ -9053,7 +9061,7 @@
         <v>158</v>
       </c>
       <c r="I164" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -9061,7 +9069,7 @@
         <v>710</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>527</v>
@@ -9076,7 +9084,7 @@
         <v>159</v>
       </c>
       <c r="I165" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -9084,7 +9092,7 @@
         <v>711</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>527</v>
@@ -9099,7 +9107,7 @@
         <v>160</v>
       </c>
       <c r="I166" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9107,7 +9115,7 @@
         <v>712</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>527</v>
@@ -9122,7 +9130,7 @@
         <v>161</v>
       </c>
       <c r="I167" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -9130,7 +9138,7 @@
         <v>713</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>527</v>
@@ -9145,7 +9153,7 @@
         <v>162</v>
       </c>
       <c r="I168" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9153,7 +9161,7 @@
         <v>714</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>527</v>
@@ -9168,7 +9176,7 @@
         <v>163</v>
       </c>
       <c r="I169" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9176,7 +9184,7 @@
         <v>715</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>527</v>
@@ -9191,7 +9199,7 @@
         <v>164</v>
       </c>
       <c r="I170" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9199,7 +9207,7 @@
         <v>716</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>527</v>
@@ -9214,7 +9222,7 @@
         <v>165</v>
       </c>
       <c r="I171" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9222,7 +9230,7 @@
         <v>717</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>527</v>
@@ -9237,7 +9245,7 @@
         <v>166</v>
       </c>
       <c r="I172" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9245,7 +9253,7 @@
         <v>718</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>527</v>
@@ -9260,7 +9268,7 @@
         <v>167</v>
       </c>
       <c r="I173" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9268,7 +9276,7 @@
         <v>719</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>527</v>
@@ -9283,7 +9291,7 @@
         <v>168</v>
       </c>
       <c r="I174" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9291,7 +9299,7 @@
         <v>720</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>527</v>
@@ -9306,7 +9314,7 @@
         <v>169</v>
       </c>
       <c r="I175" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9314,7 +9322,7 @@
         <v>721</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>527</v>
@@ -9329,7 +9337,7 @@
         <v>170</v>
       </c>
       <c r="I176" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9337,7 +9345,7 @@
         <v>722</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>527</v>
@@ -9352,7 +9360,7 @@
         <v>171</v>
       </c>
       <c r="I177" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9360,7 +9368,7 @@
         <v>723</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>527</v>
@@ -9375,7 +9383,7 @@
         <v>172</v>
       </c>
       <c r="I178" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9383,7 +9391,7 @@
         <v>724</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>527</v>
@@ -9398,7 +9406,7 @@
         <v>173</v>
       </c>
       <c r="I179" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -9406,7 +9414,7 @@
         <v>725</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>527</v>
@@ -9421,7 +9429,7 @@
         <v>174</v>
       </c>
       <c r="I180" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -9429,7 +9437,7 @@
         <v>726</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>527</v>
@@ -9444,7 +9452,7 @@
         <v>175</v>
       </c>
       <c r="I181" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9452,7 +9460,7 @@
         <v>727</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>527</v>
@@ -9467,7 +9475,7 @@
         <v>176</v>
       </c>
       <c r="I182" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9475,7 +9483,7 @@
         <v>728</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>527</v>
@@ -9490,7 +9498,7 @@
         <v>177</v>
       </c>
       <c r="I183" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9498,7 +9506,7 @@
         <v>729</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>527</v>
@@ -9513,7 +9521,7 @@
         <v>178</v>
       </c>
       <c r="I184" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9521,7 +9529,7 @@
         <v>730</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>527</v>
@@ -9536,7 +9544,7 @@
         <v>179</v>
       </c>
       <c r="I185" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9544,7 +9552,7 @@
         <v>731</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>527</v>
@@ -9559,7 +9567,7 @@
         <v>180</v>
       </c>
       <c r="I186" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9567,7 +9575,7 @@
         <v>732</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>527</v>
@@ -9582,7 +9590,7 @@
         <v>181</v>
       </c>
       <c r="I187" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9590,7 +9598,7 @@
         <v>733</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>527</v>
@@ -9605,7 +9613,7 @@
         <v>182</v>
       </c>
       <c r="I188" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9613,7 +9621,7 @@
         <v>734</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>527</v>
@@ -9628,7 +9636,7 @@
         <v>183</v>
       </c>
       <c r="I189" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9636,7 +9644,7 @@
         <v>735</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>527</v>
@@ -9651,7 +9659,7 @@
         <v>184</v>
       </c>
       <c r="I190" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9659,7 +9667,7 @@
         <v>736</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>527</v>
@@ -9674,7 +9682,7 @@
         <v>185</v>
       </c>
       <c r="I191" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9682,7 +9690,7 @@
         <v>737</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>527</v>
@@ -9697,7 +9705,7 @@
         <v>186</v>
       </c>
       <c r="I192" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9705,7 +9713,7 @@
         <v>738</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>527</v>
@@ -9720,7 +9728,7 @@
         <v>187</v>
       </c>
       <c r="I193" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9728,7 +9736,7 @@
         <v>739</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>527</v>
@@ -9743,7 +9751,7 @@
         <v>188</v>
       </c>
       <c r="I194" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9751,7 +9759,7 @@
         <v>740</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>527</v>
@@ -9766,7 +9774,7 @@
         <v>189</v>
       </c>
       <c r="I195" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9774,7 +9782,7 @@
         <v>741</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>527</v>
@@ -9789,7 +9797,7 @@
         <v>190</v>
       </c>
       <c r="I196" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9797,7 +9805,7 @@
         <v>742</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>527</v>
@@ -9812,7 +9820,7 @@
         <v>191</v>
       </c>
       <c r="I197" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9820,7 +9828,7 @@
         <v>743</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>527</v>
@@ -9835,7 +9843,7 @@
         <v>192</v>
       </c>
       <c r="I198" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9843,7 +9851,7 @@
         <v>744</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>527</v>
@@ -9858,7 +9866,7 @@
         <v>193</v>
       </c>
       <c r="I199" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9866,7 +9874,7 @@
         <v>745</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>527</v>
@@ -9881,7 +9889,7 @@
         <v>194</v>
       </c>
       <c r="I200" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9889,7 +9897,7 @@
         <v>746</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>527</v>
@@ -9904,7 +9912,7 @@
         <v>195</v>
       </c>
       <c r="I201" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9912,7 +9920,7 @@
         <v>747</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>527</v>
@@ -9927,7 +9935,7 @@
         <v>196</v>
       </c>
       <c r="I202" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9935,7 +9943,7 @@
         <v>748</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>527</v>
@@ -9950,7 +9958,7 @@
         <v>197</v>
       </c>
       <c r="I203" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9958,7 +9966,7 @@
         <v>749</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>527</v>
@@ -9973,7 +9981,7 @@
         <v>198</v>
       </c>
       <c r="I204" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9981,7 +9989,7 @@
         <v>750</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>527</v>
@@ -9996,7 +10004,7 @@
         <v>199</v>
       </c>
       <c r="I205" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -10004,7 +10012,7 @@
         <v>751</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>527</v>
@@ -10019,7 +10027,7 @@
         <v>200</v>
       </c>
       <c r="I206" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -10027,7 +10035,7 @@
         <v>752</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>527</v>
@@ -10042,7 +10050,7 @@
         <v>201</v>
       </c>
       <c r="I207" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10050,7 +10058,7 @@
         <v>753</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>527</v>
@@ -10065,7 +10073,7 @@
         <v>202</v>
       </c>
       <c r="I208" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10073,7 +10081,7 @@
         <v>754</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>527</v>
@@ -10088,7 +10096,7 @@
         <v>203</v>
       </c>
       <c r="I209" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10096,7 +10104,7 @@
         <v>755</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>527</v>
@@ -10111,7 +10119,7 @@
         <v>204</v>
       </c>
       <c r="I210" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10119,7 +10127,7 @@
         <v>756</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>527</v>
@@ -10134,7 +10142,7 @@
         <v>205</v>
       </c>
       <c r="I211" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10142,7 +10150,7 @@
         <v>757</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>527</v>
@@ -10157,7 +10165,7 @@
         <v>206</v>
       </c>
       <c r="I212" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10165,7 +10173,7 @@
         <v>758</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>527</v>
@@ -10180,7 +10188,7 @@
         <v>207</v>
       </c>
       <c r="I213" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10188,7 +10196,7 @@
         <v>759</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>527</v>
@@ -10203,7 +10211,7 @@
         <v>208</v>
       </c>
       <c r="I214" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10211,7 +10219,7 @@
         <v>760</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>527</v>
@@ -10226,7 +10234,7 @@
         <v>209</v>
       </c>
       <c r="I215" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10234,7 +10242,7 @@
         <v>761</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>527</v>
@@ -10249,7 +10257,7 @@
         <v>210</v>
       </c>
       <c r="I216" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10257,7 +10265,7 @@
         <v>762</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>527</v>
@@ -10272,7 +10280,7 @@
         <v>211</v>
       </c>
       <c r="I217" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10280,7 +10288,7 @@
         <v>763</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>527</v>
@@ -10295,7 +10303,7 @@
         <v>212</v>
       </c>
       <c r="I218" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10303,7 +10311,7 @@
         <v>764</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>527</v>
@@ -10318,7 +10326,7 @@
         <v>213</v>
       </c>
       <c r="I219" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10326,7 +10334,7 @@
         <v>765</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>527</v>
@@ -10341,7 +10349,7 @@
         <v>214</v>
       </c>
       <c r="I220" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10349,7 +10357,7 @@
         <v>766</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>527</v>
@@ -10364,7 +10372,7 @@
         <v>215</v>
       </c>
       <c r="I221" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10372,7 +10380,7 @@
         <v>767</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>527</v>
@@ -10387,7 +10395,7 @@
         <v>216</v>
       </c>
       <c r="I222" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10395,7 +10403,7 @@
         <v>768</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>527</v>
@@ -10410,7 +10418,7 @@
         <v>217</v>
       </c>
       <c r="I223" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10418,7 +10426,7 @@
         <v>769</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>527</v>
@@ -10433,7 +10441,7 @@
         <v>218</v>
       </c>
       <c r="I224" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10441,7 +10449,7 @@
         <v>770</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>527</v>
@@ -10456,7 +10464,7 @@
         <v>219</v>
       </c>
       <c r="I225" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10464,7 +10472,7 @@
         <v>771</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>527</v>
@@ -10479,7 +10487,7 @@
         <v>220</v>
       </c>
       <c r="I226" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10487,7 +10495,7 @@
         <v>772</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>527</v>
@@ -10502,7 +10510,7 @@
         <v>221</v>
       </c>
       <c r="I227" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10510,7 +10518,7 @@
         <v>773</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>527</v>
@@ -10525,7 +10533,7 @@
         <v>222</v>
       </c>
       <c r="I228" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10533,7 +10541,7 @@
         <v>774</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>527</v>
@@ -10548,7 +10556,7 @@
         <v>223</v>
       </c>
       <c r="I229" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10556,7 +10564,7 @@
         <v>775</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>527</v>
@@ -10571,7 +10579,7 @@
         <v>224</v>
       </c>
       <c r="I230" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10579,7 +10587,7 @@
         <v>776</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>527</v>
@@ -10594,7 +10602,7 @@
         <v>225</v>
       </c>
       <c r="I231" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10602,7 +10610,7 @@
         <v>777</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>527</v>
@@ -10617,7 +10625,7 @@
         <v>226</v>
       </c>
       <c r="I232" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10625,7 +10633,7 @@
         <v>778</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>527</v>
@@ -10640,7 +10648,7 @@
         <v>227</v>
       </c>
       <c r="I233" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10648,7 +10656,7 @@
         <v>779</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>527</v>
@@ -10663,7 +10671,7 @@
         <v>228</v>
       </c>
       <c r="I234" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10671,7 +10679,7 @@
         <v>780</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>527</v>
@@ -10686,7 +10694,7 @@
         <v>229</v>
       </c>
       <c r="I235" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10694,7 +10702,7 @@
         <v>781</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>527</v>
@@ -10709,7 +10717,7 @@
         <v>230</v>
       </c>
       <c r="I236" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10717,7 +10725,7 @@
         <v>782</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>527</v>
@@ -10732,7 +10740,7 @@
         <v>231</v>
       </c>
       <c r="I237" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10740,7 +10748,7 @@
         <v>783</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>527</v>
@@ -10755,7 +10763,7 @@
         <v>232</v>
       </c>
       <c r="I238" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10763,7 +10771,7 @@
         <v>784</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>527</v>
@@ -10778,7 +10786,7 @@
         <v>233</v>
       </c>
       <c r="I239" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10786,7 +10794,7 @@
         <v>785</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>527</v>
@@ -10801,7 +10809,7 @@
         <v>234</v>
       </c>
       <c r="I240" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10809,7 +10817,7 @@
         <v>786</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>527</v>
@@ -10824,7 +10832,7 @@
         <v>235</v>
       </c>
       <c r="I241" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10832,7 +10840,7 @@
         <v>787</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>527</v>
@@ -10847,7 +10855,7 @@
         <v>236</v>
       </c>
       <c r="I242" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10855,7 +10863,7 @@
         <v>788</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>527</v>
@@ -10870,7 +10878,7 @@
         <v>237</v>
       </c>
       <c r="I243" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10878,7 +10886,7 @@
         <v>789</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>527</v>
@@ -10893,7 +10901,7 @@
         <v>238</v>
       </c>
       <c r="I244" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10901,7 +10909,7 @@
         <v>790</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>527</v>
@@ -10916,7 +10924,7 @@
         <v>239</v>
       </c>
       <c r="I245" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10924,7 +10932,7 @@
         <v>791</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>527</v>
@@ -10939,7 +10947,7 @@
         <v>240</v>
       </c>
       <c r="I246" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10947,7 +10955,7 @@
         <v>792</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>527</v>
@@ -10962,7 +10970,7 @@
         <v>211</v>
       </c>
       <c r="I247" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10970,7 +10978,7 @@
         <v>793</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>527</v>
@@ -10985,7 +10993,7 @@
         <v>241</v>
       </c>
       <c r="I248" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10993,7 +11001,7 @@
         <v>794</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>527</v>
@@ -11008,7 +11016,7 @@
         <v>242</v>
       </c>
       <c r="I249" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11016,7 +11024,7 @@
         <v>795</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>527</v>
@@ -11031,7 +11039,7 @@
         <v>243</v>
       </c>
       <c r="I250" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -11039,7 +11047,7 @@
         <v>796</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>527</v>
@@ -11054,7 +11062,7 @@
         <v>244</v>
       </c>
       <c r="I251" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -11062,7 +11070,7 @@
         <v>797</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>527</v>
@@ -11077,7 +11085,7 @@
         <v>245</v>
       </c>
       <c r="I252" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -11085,7 +11093,7 @@
         <v>798</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>527</v>
@@ -11100,7 +11108,7 @@
         <v>246</v>
       </c>
       <c r="I253" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -11108,7 +11116,7 @@
         <v>799</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>527</v>
@@ -11123,7 +11131,7 @@
         <v>247</v>
       </c>
       <c r="I254" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11131,7 +11139,7 @@
         <v>800</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>527</v>
@@ -11146,7 +11154,7 @@
         <v>248</v>
       </c>
       <c r="I255" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -11154,7 +11162,7 @@
         <v>801</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>527</v>
@@ -11169,7 +11177,7 @@
         <v>249</v>
       </c>
       <c r="I256" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -11177,7 +11185,7 @@
         <v>802</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>527</v>
@@ -11192,7 +11200,7 @@
         <v>250</v>
       </c>
       <c r="I257" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -11200,7 +11208,7 @@
         <v>803</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>527</v>
@@ -11215,7 +11223,7 @@
         <v>251</v>
       </c>
       <c r="I258" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -11223,7 +11231,7 @@
         <v>804</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>527</v>
@@ -11238,7 +11246,7 @@
         <v>252</v>
       </c>
       <c r="I259" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -11246,7 +11254,7 @@
         <v>805</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>527</v>
@@ -11261,7 +11269,7 @@
         <v>253</v>
       </c>
       <c r="I260" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11269,7 +11277,7 @@
         <v>806</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>527</v>
@@ -11284,7 +11292,7 @@
         <v>254</v>
       </c>
       <c r="I261" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11292,7 +11300,7 @@
         <v>807</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>527</v>
@@ -11307,7 +11315,7 @@
         <v>255</v>
       </c>
       <c r="I262" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -11315,7 +11323,7 @@
         <v>808</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>527</v>
@@ -11330,7 +11338,7 @@
         <v>256</v>
       </c>
       <c r="I263" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -11338,7 +11346,7 @@
         <v>809</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>527</v>
@@ -11353,7 +11361,7 @@
         <v>257</v>
       </c>
       <c r="I264" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -11361,7 +11369,7 @@
         <v>810</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>527</v>
@@ -11376,7 +11384,7 @@
         <v>258</v>
       </c>
       <c r="I265" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -11384,7 +11392,7 @@
         <v>811</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>527</v>
@@ -11399,7 +11407,7 @@
         <v>259</v>
       </c>
       <c r="I266" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -11407,7 +11415,7 @@
         <v>812</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>527</v>
@@ -11422,7 +11430,7 @@
         <v>260</v>
       </c>
       <c r="I267" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -11430,7 +11438,7 @@
         <v>813</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>527</v>
@@ -11445,7 +11453,7 @@
         <v>261</v>
       </c>
       <c r="I268" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -11453,7 +11461,7 @@
         <v>814</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>527</v>
@@ -11468,7 +11476,7 @@
         <v>262</v>
       </c>
       <c r="I269" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11476,7 +11484,7 @@
         <v>815</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>527</v>
@@ -11491,7 +11499,7 @@
         <v>263</v>
       </c>
       <c r="I270" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11499,7 +11507,7 @@
         <v>816</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>527</v>
@@ -11514,7 +11522,7 @@
         <v>264</v>
       </c>
       <c r="I271" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11522,7 +11530,7 @@
         <v>817</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>527</v>
@@ -11537,7 +11545,7 @@
         <v>265</v>
       </c>
       <c r="I272" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11545,7 +11553,7 @@
         <v>818</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>527</v>
@@ -11560,7 +11568,7 @@
         <v>266</v>
       </c>
       <c r="I273" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11568,7 +11576,7 @@
         <v>819</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>527</v>
@@ -11583,7 +11591,7 @@
         <v>267</v>
       </c>
       <c r="I274" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11591,7 +11599,7 @@
         <v>820</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>527</v>
@@ -11606,7 +11614,7 @@
         <v>268</v>
       </c>
       <c r="I275" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11614,7 +11622,7 @@
         <v>821</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>527</v>
@@ -11629,7 +11637,7 @@
         <v>269</v>
       </c>
       <c r="I276" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11637,7 +11645,7 @@
         <v>822</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>527</v>
@@ -11652,7 +11660,7 @@
         <v>270</v>
       </c>
       <c r="I277" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11660,7 +11668,7 @@
         <v>823</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>527</v>
@@ -11675,7 +11683,7 @@
         <v>271</v>
       </c>
       <c r="I278" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11683,7 +11691,7 @@
         <v>824</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>527</v>
@@ -11698,7 +11706,7 @@
         <v>272</v>
       </c>
       <c r="I279" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11706,7 +11714,7 @@
         <v>825</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>527</v>
@@ -11721,7 +11729,7 @@
         <v>273</v>
       </c>
       <c r="I280" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11729,7 +11737,7 @@
         <v>826</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>527</v>
@@ -11744,7 +11752,7 @@
         <v>274</v>
       </c>
       <c r="I281" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11752,7 +11760,7 @@
         <v>827</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>527</v>
@@ -11767,7 +11775,7 @@
         <v>275</v>
       </c>
       <c r="I282" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11775,7 +11783,7 @@
         <v>828</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>527</v>
@@ -11790,7 +11798,7 @@
         <v>276</v>
       </c>
       <c r="I283" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11798,7 +11806,7 @@
         <v>829</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>527</v>
@@ -11813,7 +11821,7 @@
         <v>277</v>
       </c>
       <c r="I284" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -11821,7 +11829,7 @@
         <v>830</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>527</v>
@@ -11836,7 +11844,7 @@
         <v>278</v>
       </c>
       <c r="I285" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -11844,7 +11852,7 @@
         <v>831</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>527</v>
@@ -11859,7 +11867,7 @@
         <v>279</v>
       </c>
       <c r="I286" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -11867,7 +11875,7 @@
         <v>832</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>527</v>
@@ -11882,7 +11890,7 @@
         <v>280</v>
       </c>
       <c r="I287" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -11890,7 +11898,7 @@
         <v>833</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>527</v>
@@ -11905,7 +11913,7 @@
         <v>281</v>
       </c>
       <c r="I288" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -11913,7 +11921,7 @@
         <v>834</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>527</v>
@@ -11928,7 +11936,7 @@
         <v>282</v>
       </c>
       <c r="I289" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -11936,7 +11944,7 @@
         <v>835</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>527</v>
@@ -11951,7 +11959,7 @@
         <v>283</v>
       </c>
       <c r="I290" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -11959,7 +11967,7 @@
         <v>836</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>527</v>
@@ -11974,7 +11982,7 @@
         <v>284</v>
       </c>
       <c r="I291" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -11982,7 +11990,7 @@
         <v>837</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>527</v>
@@ -11997,7 +12005,7 @@
         <v>285</v>
       </c>
       <c r="I292" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -12005,7 +12013,7 @@
         <v>838</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>527</v>
@@ -12020,7 +12028,7 @@
         <v>286</v>
       </c>
       <c r="I293" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -12028,7 +12036,7 @@
         <v>839</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>527</v>
@@ -12043,7 +12051,7 @@
         <v>287</v>
       </c>
       <c r="I294" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -12051,7 +12059,7 @@
         <v>840</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>527</v>
@@ -12066,7 +12074,7 @@
         <v>288</v>
       </c>
       <c r="I295" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12074,7 +12082,7 @@
         <v>841</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>527</v>
@@ -12089,7 +12097,7 @@
         <v>289</v>
       </c>
       <c r="I296" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12097,7 +12105,7 @@
         <v>842</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>527</v>
@@ -12112,7 +12120,7 @@
         <v>290</v>
       </c>
       <c r="I297" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12120,7 +12128,7 @@
         <v>843</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>527</v>
@@ -12135,7 +12143,7 @@
         <v>291</v>
       </c>
       <c r="I298" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -12143,7 +12151,7 @@
         <v>844</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>527</v>
@@ -12158,7 +12166,7 @@
         <v>292</v>
       </c>
       <c r="I299" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -12166,7 +12174,7 @@
         <v>845</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>527</v>
@@ -12181,7 +12189,7 @@
         <v>293</v>
       </c>
       <c r="I300" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -12189,7 +12197,7 @@
         <v>846</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>527</v>
@@ -12204,7 +12212,7 @@
         <v>294</v>
       </c>
       <c r="I301" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -12212,7 +12220,7 @@
         <v>847</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>527</v>
@@ -12227,7 +12235,7 @@
         <v>295</v>
       </c>
       <c r="I302" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -12235,7 +12243,7 @@
         <v>848</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>527</v>
@@ -12250,7 +12258,7 @@
         <v>296</v>
       </c>
       <c r="I303" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -12258,7 +12266,7 @@
         <v>849</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>527</v>
@@ -12273,7 +12281,7 @@
         <v>297</v>
       </c>
       <c r="I304" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -12281,7 +12289,7 @@
         <v>850</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>527</v>
@@ -12296,7 +12304,7 @@
         <v>298</v>
       </c>
       <c r="I305" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -12304,7 +12312,7 @@
         <v>851</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>527</v>
@@ -12319,7 +12327,7 @@
         <v>299</v>
       </c>
       <c r="I306" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -12327,7 +12335,7 @@
         <v>852</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>527</v>
@@ -12342,7 +12350,7 @@
         <v>300</v>
       </c>
       <c r="I307" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -12350,7 +12358,7 @@
         <v>853</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>527</v>
@@ -12373,7 +12381,7 @@
         <v>854</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>527</v>
@@ -12388,7 +12396,7 @@
         <v>301</v>
       </c>
       <c r="I309" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -12396,7 +12404,7 @@
         <v>855</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>527</v>
@@ -12411,7 +12419,7 @@
         <v>302</v>
       </c>
       <c r="I310" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -12419,7 +12427,7 @@
         <v>856</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>527</v>
@@ -12434,7 +12442,7 @@
         <v>303</v>
       </c>
       <c r="I311" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -12442,7 +12450,7 @@
         <v>857</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>527</v>
@@ -12457,7 +12465,7 @@
         <v>304</v>
       </c>
       <c r="I312" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -12465,7 +12473,7 @@
         <v>858</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>527</v>
@@ -12480,7 +12488,7 @@
         <v>305</v>
       </c>
       <c r="I313" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -12488,7 +12496,7 @@
         <v>859</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>527</v>
@@ -12503,7 +12511,7 @@
         <v>306</v>
       </c>
       <c r="I314" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -12511,7 +12519,7 @@
         <v>860</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>527</v>
@@ -12526,7 +12534,7 @@
         <v>307</v>
       </c>
       <c r="I315" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -12534,7 +12542,7 @@
         <v>861</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>527</v>
@@ -12549,7 +12557,7 @@
         <v>308</v>
       </c>
       <c r="I316" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -12557,7 +12565,7 @@
         <v>862</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>527</v>
@@ -12572,7 +12580,7 @@
         <v>309</v>
       </c>
       <c r="I317" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -12580,7 +12588,7 @@
         <v>863</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>527</v>
@@ -12595,7 +12603,7 @@
         <v>310</v>
       </c>
       <c r="I318" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -12603,7 +12611,7 @@
         <v>864</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>527</v>
@@ -12618,7 +12626,7 @@
         <v>311</v>
       </c>
       <c r="I319" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -12626,7 +12634,7 @@
         <v>865</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>527</v>
@@ -12641,7 +12649,7 @@
         <v>312</v>
       </c>
       <c r="I320" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -12649,7 +12657,7 @@
         <v>866</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>527</v>
@@ -12664,7 +12672,7 @@
         <v>313</v>
       </c>
       <c r="I321" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -12672,7 +12680,7 @@
         <v>867</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>527</v>
@@ -12695,7 +12703,7 @@
         <v>868</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>527</v>
@@ -12710,7 +12718,7 @@
         <v>314</v>
       </c>
       <c r="I323" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -12718,7 +12726,7 @@
         <v>869</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>527</v>
@@ -12733,7 +12741,7 @@
         <v>315</v>
       </c>
       <c r="I324" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -12741,7 +12749,7 @@
         <v>870</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>527</v>
@@ -12756,7 +12764,7 @@
         <v>316</v>
       </c>
       <c r="I325" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -12764,13 +12772,13 @@
         <v>871</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>1094</v>
@@ -12779,7 +12787,7 @@
         <v>317</v>
       </c>
       <c r="I326" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -12787,13 +12795,13 @@
         <v>872</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>1094</v>
@@ -12802,7 +12810,7 @@
         <v>318</v>
       </c>
       <c r="I327" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -12810,13 +12818,13 @@
         <v>873</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>1094</v>
@@ -12825,7 +12833,7 @@
         <v>319</v>
       </c>
       <c r="I328" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -12833,13 +12841,13 @@
         <v>874</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>1094</v>
@@ -12848,7 +12856,7 @@
         <v>320</v>
       </c>
       <c r="I329" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -12856,13 +12864,13 @@
         <v>875</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>1094</v>
@@ -12871,7 +12879,7 @@
         <v>321</v>
       </c>
       <c r="I330" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -12879,13 +12887,13 @@
         <v>876</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>1094</v>
@@ -12894,7 +12902,7 @@
         <v>322</v>
       </c>
       <c r="I331" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -12902,13 +12910,13 @@
         <v>877</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>1094</v>
@@ -12917,7 +12925,7 @@
         <v>323</v>
       </c>
       <c r="I332" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -12925,13 +12933,13 @@
         <v>878</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>1094</v>
@@ -12940,7 +12948,7 @@
         <v>324</v>
       </c>
       <c r="I333" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -12948,13 +12956,13 @@
         <v>879</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>1094</v>
@@ -12963,7 +12971,7 @@
         <v>325</v>
       </c>
       <c r="I334" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -12971,13 +12979,13 @@
         <v>880</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>1094</v>
@@ -12986,7 +12994,7 @@
         <v>326</v>
       </c>
       <c r="I335" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -12994,13 +13002,13 @@
         <v>881</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>1094</v>
@@ -13009,7 +13017,7 @@
         <v>327</v>
       </c>
       <c r="I336" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -13017,13 +13025,13 @@
         <v>882</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>1094</v>
@@ -13032,7 +13040,7 @@
         <v>328</v>
       </c>
       <c r="I337" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13040,13 +13048,13 @@
         <v>883</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>1094</v>
@@ -13055,7 +13063,7 @@
         <v>329</v>
       </c>
       <c r="I338" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13063,13 +13071,13 @@
         <v>884</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>1094</v>
@@ -13078,7 +13086,7 @@
         <v>330</v>
       </c>
       <c r="I339" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -13086,13 +13094,13 @@
         <v>885</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>1094</v>
@@ -13101,7 +13109,7 @@
         <v>331</v>
       </c>
       <c r="I340" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -13109,13 +13117,13 @@
         <v>886</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>1094</v>
@@ -13124,7 +13132,7 @@
         <v>332</v>
       </c>
       <c r="I341" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13132,13 +13140,13 @@
         <v>887</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>1094</v>
@@ -13147,7 +13155,7 @@
         <v>333</v>
       </c>
       <c r="I342" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -13155,13 +13163,13 @@
         <v>888</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>1094</v>
@@ -13170,7 +13178,7 @@
         <v>334</v>
       </c>
       <c r="I343" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13178,13 +13186,13 @@
         <v>889</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>1094</v>
@@ -13193,7 +13201,7 @@
         <v>335</v>
       </c>
       <c r="I344" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13201,13 +13209,13 @@
         <v>890</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>1094</v>
@@ -13216,7 +13224,7 @@
         <v>336</v>
       </c>
       <c r="I345" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -13224,13 +13232,13 @@
         <v>891</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>1094</v>
@@ -13239,7 +13247,7 @@
         <v>337</v>
       </c>
       <c r="I346" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -13247,13 +13255,13 @@
         <v>892</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>1094</v>
@@ -13262,7 +13270,7 @@
         <v>338</v>
       </c>
       <c r="I347" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -13270,13 +13278,13 @@
         <v>893</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>1094</v>
@@ -13285,7 +13293,7 @@
         <v>339</v>
       </c>
       <c r="I348" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13293,13 +13301,13 @@
         <v>894</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>1094</v>
@@ -13308,7 +13316,7 @@
         <v>340</v>
       </c>
       <c r="I349" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -13316,13 +13324,13 @@
         <v>895</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>1094</v>
@@ -13331,7 +13339,7 @@
         <v>341</v>
       </c>
       <c r="I350" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -13339,13 +13347,13 @@
         <v>896</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>1094</v>
@@ -13354,7 +13362,7 @@
         <v>342</v>
       </c>
       <c r="I351" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13362,13 +13370,13 @@
         <v>897</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>1094</v>
@@ -13377,7 +13385,7 @@
         <v>343</v>
       </c>
       <c r="I352" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -13385,13 +13393,13 @@
         <v>898</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>1094</v>
@@ -13400,7 +13408,7 @@
         <v>344</v>
       </c>
       <c r="I353" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13408,13 +13416,13 @@
         <v>899</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>1094</v>
@@ -13423,7 +13431,7 @@
         <v>345</v>
       </c>
       <c r="I354" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13431,13 +13439,13 @@
         <v>900</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>1094</v>
@@ -13446,7 +13454,7 @@
         <v>346</v>
       </c>
       <c r="I355" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -13454,13 +13462,13 @@
         <v>901</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>1094</v>
@@ -13469,7 +13477,7 @@
         <v>347</v>
       </c>
       <c r="I356" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -13477,13 +13485,13 @@
         <v>902</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>1094</v>
@@ -13492,7 +13500,7 @@
         <v>348</v>
       </c>
       <c r="I357" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -13500,13 +13508,13 @@
         <v>903</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>1094</v>
@@ -13515,7 +13523,7 @@
         <v>349</v>
       </c>
       <c r="I358" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -13523,13 +13531,13 @@
         <v>904</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>1094</v>
@@ -13538,7 +13546,7 @@
         <v>350</v>
       </c>
       <c r="I359" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -13546,13 +13554,13 @@
         <v>905</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>1094</v>
@@ -13561,7 +13569,7 @@
         <v>310</v>
       </c>
       <c r="I360" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -13569,13 +13577,13 @@
         <v>906</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>1094</v>
@@ -13584,7 +13592,7 @@
         <v>351</v>
       </c>
       <c r="I361" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -13592,13 +13600,13 @@
         <v>907</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>1094</v>
@@ -13607,7 +13615,7 @@
         <v>352</v>
       </c>
       <c r="I362" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -13615,13 +13623,13 @@
         <v>908</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>1094</v>
@@ -13630,7 +13638,7 @@
         <v>353</v>
       </c>
       <c r="I363" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -13638,13 +13646,13 @@
         <v>909</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>1094</v>
@@ -13653,7 +13661,7 @@
         <v>354</v>
       </c>
       <c r="I364" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -13661,13 +13669,13 @@
         <v>910</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>1094</v>
@@ -13676,7 +13684,7 @@
         <v>355</v>
       </c>
       <c r="I365" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -13684,13 +13692,13 @@
         <v>911</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>1094</v>
@@ -13699,7 +13707,7 @@
         <v>356</v>
       </c>
       <c r="I366" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -13707,13 +13715,13 @@
         <v>912</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>1094</v>
@@ -13722,7 +13730,7 @@
         <v>357</v>
       </c>
       <c r="I367" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -13730,13 +13738,13 @@
         <v>913</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>1094</v>
@@ -13745,7 +13753,7 @@
         <v>358</v>
       </c>
       <c r="I368" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -13753,13 +13761,13 @@
         <v>914</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>1094</v>
@@ -13768,7 +13776,7 @@
         <v>359</v>
       </c>
       <c r="I369" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -13776,13 +13784,13 @@
         <v>915</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>1094</v>
@@ -13791,7 +13799,7 @@
         <v>360</v>
       </c>
       <c r="I370" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -13799,13 +13807,13 @@
         <v>916</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>1094</v>
@@ -13814,7 +13822,7 @@
         <v>361</v>
       </c>
       <c r="I371" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -13822,13 +13830,13 @@
         <v>917</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>1094</v>
@@ -13837,7 +13845,7 @@
         <v>362</v>
       </c>
       <c r="I372" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -13845,13 +13853,13 @@
         <v>918</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>1094</v>
@@ -13860,7 +13868,7 @@
         <v>363</v>
       </c>
       <c r="I373" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -13868,13 +13876,13 @@
         <v>919</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>1094</v>
@@ -13883,7 +13891,7 @@
         <v>364</v>
       </c>
       <c r="I374" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -13891,13 +13899,13 @@
         <v>920</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>1094</v>
@@ -13906,7 +13914,7 @@
         <v>365</v>
       </c>
       <c r="I375" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -13914,13 +13922,13 @@
         <v>921</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>1094</v>
@@ -13929,7 +13937,7 @@
         <v>366</v>
       </c>
       <c r="I376" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -13937,13 +13945,13 @@
         <v>922</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>1094</v>
@@ -13952,7 +13960,7 @@
         <v>367</v>
       </c>
       <c r="I377" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -13960,13 +13968,13 @@
         <v>923</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>1094</v>
@@ -13975,7 +13983,7 @@
         <v>368</v>
       </c>
       <c r="I378" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -13983,13 +13991,13 @@
         <v>924</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>1094</v>
@@ -13998,7 +14006,7 @@
         <v>369</v>
       </c>
       <c r="I379" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -14006,13 +14014,13 @@
         <v>925</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>1094</v>
@@ -14021,7 +14029,7 @@
         <v>370</v>
       </c>
       <c r="I380" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -14029,13 +14037,13 @@
         <v>926</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>1094</v>
@@ -14044,7 +14052,7 @@
         <v>371</v>
       </c>
       <c r="I381" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -14052,13 +14060,13 @@
         <v>927</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>1094</v>
@@ -14067,7 +14075,7 @@
         <v>372</v>
       </c>
       <c r="I382" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -14075,13 +14083,13 @@
         <v>928</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>1094</v>
@@ -14090,7 +14098,7 @@
         <v>373</v>
       </c>
       <c r="I383" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -14098,13 +14106,13 @@
         <v>929</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>1094</v>
@@ -14113,7 +14121,7 @@
         <v>374</v>
       </c>
       <c r="I384" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -14121,13 +14129,13 @@
         <v>930</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>1094</v>
@@ -14136,7 +14144,7 @@
         <v>375</v>
       </c>
       <c r="I385" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -14144,13 +14152,13 @@
         <v>931</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>1094</v>
@@ -14159,7 +14167,7 @@
         <v>342</v>
       </c>
       <c r="I386" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -14167,13 +14175,13 @@
         <v>932</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>1094</v>
@@ -14182,7 +14190,7 @@
         <v>376</v>
       </c>
       <c r="I387" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -14190,13 +14198,13 @@
         <v>933</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>1094</v>
@@ -14205,7 +14213,7 @@
         <v>377</v>
       </c>
       <c r="I388" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -14213,13 +14221,13 @@
         <v>934</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>1094</v>
@@ -14228,7 +14236,7 @@
         <v>378</v>
       </c>
       <c r="I389" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -14236,13 +14244,13 @@
         <v>935</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>1094</v>
@@ -14251,7 +14259,7 @@
         <v>379</v>
       </c>
       <c r="I390" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -14259,13 +14267,13 @@
         <v>936</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>1094</v>
@@ -14274,7 +14282,7 @@
         <v>380</v>
       </c>
       <c r="I391" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -14282,7 +14290,7 @@
         <v>937</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>527</v>
@@ -14297,7 +14305,7 @@
         <v>381</v>
       </c>
       <c r="I392" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -14305,7 +14313,7 @@
         <v>938</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>527</v>
@@ -14320,7 +14328,7 @@
         <v>382</v>
       </c>
       <c r="I393" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -14328,7 +14336,7 @@
         <v>939</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>527</v>
@@ -14343,7 +14351,7 @@
         <v>383</v>
       </c>
       <c r="I394" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -14351,7 +14359,7 @@
         <v>940</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>527</v>
@@ -14366,7 +14374,7 @@
         <v>384</v>
       </c>
       <c r="I395" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -14374,7 +14382,7 @@
         <v>941</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>527</v>
@@ -14389,7 +14397,7 @@
         <v>385</v>
       </c>
       <c r="I396" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -14397,7 +14405,7 @@
         <v>942</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>527</v>
@@ -14412,7 +14420,7 @@
         <v>386</v>
       </c>
       <c r="I397" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -14420,7 +14428,7 @@
         <v>943</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>527</v>
@@ -14435,7 +14443,7 @@
         <v>387</v>
       </c>
       <c r="I398" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -14443,7 +14451,7 @@
         <v>944</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>527</v>
@@ -14458,7 +14466,7 @@
         <v>388</v>
       </c>
       <c r="I399" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -14466,7 +14474,7 @@
         <v>945</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>527</v>
@@ -14481,7 +14489,7 @@
         <v>389</v>
       </c>
       <c r="I400" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -14489,7 +14497,7 @@
         <v>946</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>527</v>
@@ -14504,7 +14512,7 @@
         <v>390</v>
       </c>
       <c r="I401" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -14512,7 +14520,7 @@
         <v>947</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>527</v>
@@ -14527,7 +14535,7 @@
         <v>391</v>
       </c>
       <c r="I402" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -14535,7 +14543,7 @@
         <v>948</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>527</v>
@@ -14550,7 +14558,7 @@
         <v>392</v>
       </c>
       <c r="I403" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -14558,7 +14566,7 @@
         <v>949</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>527</v>
@@ -14573,7 +14581,7 @@
         <v>393</v>
       </c>
       <c r="I404" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -14581,7 +14589,7 @@
         <v>950</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>527</v>
@@ -14596,7 +14604,7 @@
         <v>394</v>
       </c>
       <c r="I405" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -14604,7 +14612,7 @@
         <v>951</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>527</v>
@@ -14619,7 +14627,7 @@
         <v>395</v>
       </c>
       <c r="I406" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -14627,7 +14635,7 @@
         <v>952</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>527</v>
@@ -14642,7 +14650,7 @@
         <v>396</v>
       </c>
       <c r="I407" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -14650,7 +14658,7 @@
         <v>953</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>527</v>
@@ -14665,7 +14673,7 @@
         <v>397</v>
       </c>
       <c r="I408" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -14673,7 +14681,7 @@
         <v>954</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>527</v>
@@ -14688,7 +14696,7 @@
         <v>398</v>
       </c>
       <c r="I409" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -14696,7 +14704,7 @@
         <v>955</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>527</v>
@@ -14711,7 +14719,7 @@
         <v>399</v>
       </c>
       <c r="I410" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -14719,7 +14727,7 @@
         <v>956</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>527</v>
@@ -14734,7 +14742,7 @@
         <v>400</v>
       </c>
       <c r="I411" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -14742,7 +14750,7 @@
         <v>957</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>527</v>
@@ -14757,7 +14765,7 @@
         <v>401</v>
       </c>
       <c r="I412" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -14765,7 +14773,7 @@
         <v>958</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>527</v>
@@ -14780,7 +14788,7 @@
         <v>402</v>
       </c>
       <c r="I413" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -14788,7 +14796,7 @@
         <v>959</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>527</v>
@@ -14803,7 +14811,7 @@
         <v>403</v>
       </c>
       <c r="I414" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -14811,7 +14819,7 @@
         <v>960</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>527</v>
@@ -14826,7 +14834,7 @@
         <v>404</v>
       </c>
       <c r="I415" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -14834,7 +14842,7 @@
         <v>961</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>527</v>
@@ -14849,7 +14857,7 @@
         <v>405</v>
       </c>
       <c r="I416" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -14857,7 +14865,7 @@
         <v>962</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>527</v>
@@ -14872,7 +14880,7 @@
         <v>406</v>
       </c>
       <c r="I417" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -14880,7 +14888,7 @@
         <v>963</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>527</v>
@@ -14895,7 +14903,7 @@
         <v>407</v>
       </c>
       <c r="I418" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -14903,7 +14911,7 @@
         <v>964</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>527</v>
@@ -14918,7 +14926,7 @@
         <v>408</v>
       </c>
       <c r="I419" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -14926,7 +14934,7 @@
         <v>965</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>527</v>
@@ -14941,7 +14949,7 @@
         <v>409</v>
       </c>
       <c r="I420" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -14949,7 +14957,7 @@
         <v>966</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>527</v>
@@ -14964,7 +14972,7 @@
         <v>410</v>
       </c>
       <c r="I421" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -14972,7 +14980,7 @@
         <v>967</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>527</v>
@@ -14987,7 +14995,7 @@
         <v>411</v>
       </c>
       <c r="I422" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -14995,7 +15003,7 @@
         <v>968</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>527</v>
@@ -15010,7 +15018,7 @@
         <v>412</v>
       </c>
       <c r="I423" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -15018,7 +15026,7 @@
         <v>969</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>527</v>
@@ -15033,7 +15041,7 @@
         <v>413</v>
       </c>
       <c r="I424" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -15041,7 +15049,7 @@
         <v>970</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>527</v>
@@ -15056,7 +15064,7 @@
         <v>414</v>
       </c>
       <c r="I425" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -15064,7 +15072,7 @@
         <v>971</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>527</v>
@@ -15079,7 +15087,7 @@
         <v>415</v>
       </c>
       <c r="I426" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -15087,7 +15095,7 @@
         <v>972</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>527</v>
@@ -15102,7 +15110,7 @@
         <v>416</v>
       </c>
       <c r="I427" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -15110,7 +15118,7 @@
         <v>973</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>527</v>
@@ -15125,7 +15133,7 @@
         <v>417</v>
       </c>
       <c r="I428" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -15133,7 +15141,7 @@
         <v>974</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>527</v>
@@ -15148,7 +15156,7 @@
         <v>418</v>
       </c>
       <c r="I429" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -15156,7 +15164,7 @@
         <v>975</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>527</v>
@@ -15171,7 +15179,7 @@
         <v>419</v>
       </c>
       <c r="I430" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -15179,7 +15187,7 @@
         <v>976</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>527</v>
@@ -15194,7 +15202,7 @@
         <v>420</v>
       </c>
       <c r="I431" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -15202,7 +15210,7 @@
         <v>977</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>527</v>
@@ -15217,7 +15225,7 @@
         <v>421</v>
       </c>
       <c r="I432" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -15225,7 +15233,7 @@
         <v>978</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>527</v>
@@ -15240,7 +15248,7 @@
         <v>422</v>
       </c>
       <c r="I433" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -15248,7 +15256,7 @@
         <v>979</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>527</v>
@@ -15263,7 +15271,7 @@
         <v>423</v>
       </c>
       <c r="I434" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -15271,7 +15279,7 @@
         <v>980</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>527</v>
@@ -15286,7 +15294,7 @@
         <v>424</v>
       </c>
       <c r="I435" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -15294,7 +15302,7 @@
         <v>981</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>527</v>
@@ -15309,7 +15317,7 @@
         <v>425</v>
       </c>
       <c r="I436" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -15317,7 +15325,7 @@
         <v>982</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>527</v>
@@ -15332,7 +15340,7 @@
         <v>426</v>
       </c>
       <c r="I437" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -15340,7 +15348,7 @@
         <v>983</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>527</v>
@@ -15355,7 +15363,7 @@
         <v>427</v>
       </c>
       <c r="I438" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -15363,7 +15371,7 @@
         <v>984</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>527</v>
@@ -15378,7 +15386,7 @@
         <v>428</v>
       </c>
       <c r="I439" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -15386,7 +15394,7 @@
         <v>985</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>527</v>
@@ -15401,7 +15409,7 @@
         <v>429</v>
       </c>
       <c r="I440" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -15409,7 +15417,7 @@
         <v>986</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>527</v>
@@ -15424,7 +15432,7 @@
         <v>430</v>
       </c>
       <c r="I441" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -15432,7 +15440,7 @@
         <v>987</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>527</v>
@@ -15447,7 +15455,7 @@
         <v>431</v>
       </c>
       <c r="I442" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -15455,7 +15463,7 @@
         <v>988</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>527</v>
@@ -15470,7 +15478,7 @@
         <v>432</v>
       </c>
       <c r="I443" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -15478,7 +15486,7 @@
         <v>989</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>527</v>
@@ -15493,7 +15501,7 @@
         <v>433</v>
       </c>
       <c r="I444" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -15501,7 +15509,7 @@
         <v>990</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>527</v>
@@ -15516,7 +15524,7 @@
         <v>434</v>
       </c>
       <c r="I445" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -15524,7 +15532,7 @@
         <v>991</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>527</v>
@@ -15539,7 +15547,7 @@
         <v>435</v>
       </c>
       <c r="I446" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -15547,7 +15555,7 @@
         <v>992</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>527</v>
@@ -15562,7 +15570,7 @@
         <v>436</v>
       </c>
       <c r="I447" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -15570,7 +15578,7 @@
         <v>993</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>527</v>
@@ -15585,7 +15593,7 @@
         <v>437</v>
       </c>
       <c r="I448" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -15593,7 +15601,7 @@
         <v>994</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>527</v>
@@ -15608,7 +15616,7 @@
         <v>438</v>
       </c>
       <c r="I449" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -15616,7 +15624,7 @@
         <v>995</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>527</v>
@@ -15631,7 +15639,7 @@
         <v>439</v>
       </c>
       <c r="I450" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -15639,7 +15647,7 @@
         <v>996</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>527</v>
@@ -15654,7 +15662,7 @@
         <v>440</v>
       </c>
       <c r="I451" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -15662,7 +15670,7 @@
         <v>997</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>527</v>
@@ -15677,7 +15685,7 @@
         <v>441</v>
       </c>
       <c r="I452" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -15685,7 +15693,7 @@
         <v>998</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>527</v>
@@ -15700,7 +15708,7 @@
         <v>442</v>
       </c>
       <c r="I453" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -15708,7 +15716,7 @@
         <v>999</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>527</v>
@@ -15723,7 +15731,7 @@
         <v>443</v>
       </c>
       <c r="I454" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -15731,7 +15739,7 @@
         <v>1000</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>527</v>
@@ -15746,7 +15754,7 @@
         <v>444</v>
       </c>
       <c r="I455" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -15754,7 +15762,7 @@
         <v>1001</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>527</v>
@@ -15769,7 +15777,7 @@
         <v>445</v>
       </c>
       <c r="I456" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -15777,7 +15785,7 @@
         <v>1002</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>527</v>
@@ -15792,7 +15800,7 @@
         <v>446</v>
       </c>
       <c r="I457" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -15800,7 +15808,7 @@
         <v>1003</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>527</v>
@@ -15815,7 +15823,7 @@
         <v>447</v>
       </c>
       <c r="I458" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -15823,7 +15831,7 @@
         <v>1004</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>527</v>
@@ -15838,7 +15846,7 @@
         <v>448</v>
       </c>
       <c r="I459" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -15846,7 +15854,7 @@
         <v>1005</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>527</v>
@@ -15861,7 +15869,7 @@
         <v>449</v>
       </c>
       <c r="I460" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -15869,7 +15877,7 @@
         <v>1006</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>527</v>
@@ -15884,7 +15892,7 @@
         <v>450</v>
       </c>
       <c r="I461" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -15892,7 +15900,7 @@
         <v>1007</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>527</v>
@@ -15907,7 +15915,7 @@
         <v>451</v>
       </c>
       <c r="I462" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -15915,7 +15923,7 @@
         <v>1008</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>527</v>
@@ -15930,7 +15938,7 @@
         <v>452</v>
       </c>
       <c r="I463" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -15938,7 +15946,7 @@
         <v>1009</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>527</v>
@@ -15953,7 +15961,7 @@
         <v>453</v>
       </c>
       <c r="I464" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -15961,7 +15969,7 @@
         <v>1010</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>527</v>
@@ -15976,7 +15984,7 @@
         <v>454</v>
       </c>
       <c r="I465" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -15984,7 +15992,7 @@
         <v>1011</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>527</v>
@@ -15999,7 +16007,7 @@
         <v>455</v>
       </c>
       <c r="I466" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -16007,7 +16015,7 @@
         <v>1012</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>527</v>
@@ -16022,7 +16030,7 @@
         <v>456</v>
       </c>
       <c r="I467" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -16030,7 +16038,7 @@
         <v>1013</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>527</v>
@@ -16045,7 +16053,7 @@
         <v>457</v>
       </c>
       <c r="I468" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -16053,7 +16061,7 @@
         <v>1014</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>527</v>
@@ -16068,7 +16076,7 @@
         <v>458</v>
       </c>
       <c r="I469" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -16076,7 +16084,7 @@
         <v>1015</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>527</v>
@@ -16091,7 +16099,7 @@
         <v>459</v>
       </c>
       <c r="I470" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -16099,7 +16107,7 @@
         <v>1016</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>527</v>
@@ -16114,7 +16122,7 @@
         <v>460</v>
       </c>
       <c r="I471" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -16122,7 +16130,7 @@
         <v>1017</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>527</v>
@@ -16137,7 +16145,7 @@
         <v>461</v>
       </c>
       <c r="I472" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -16145,7 +16153,7 @@
         <v>1018</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>527</v>
@@ -16160,7 +16168,7 @@
         <v>314</v>
       </c>
       <c r="I473" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -16168,7 +16176,7 @@
         <v>1019</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>546</v>
@@ -16183,7 +16191,7 @@
         <v>462</v>
       </c>
       <c r="I474" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -16191,7 +16199,7 @@
         <v>1020</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>546</v>
@@ -16206,7 +16214,7 @@
         <v>463</v>
       </c>
       <c r="I475" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -16214,7 +16222,7 @@
         <v>1021</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>546</v>
@@ -16229,7 +16237,7 @@
         <v>464</v>
       </c>
       <c r="I476" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -16237,7 +16245,7 @@
         <v>1022</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>546</v>
@@ -16252,7 +16260,7 @@
         <v>465</v>
       </c>
       <c r="I477" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -16260,7 +16268,7 @@
         <v>1023</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>546</v>
@@ -16275,7 +16283,7 @@
         <v>466</v>
       </c>
       <c r="I478" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -16283,7 +16291,7 @@
         <v>1024</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>546</v>
@@ -16298,7 +16306,7 @@
         <v>467</v>
       </c>
       <c r="I479" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -16306,7 +16314,7 @@
         <v>1025</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>546</v>
@@ -16321,7 +16329,7 @@
         <v>468</v>
       </c>
       <c r="I480" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -16329,7 +16337,7 @@
         <v>1026</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>546</v>
@@ -16344,7 +16352,7 @@
         <v>469</v>
       </c>
       <c r="I481" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -16352,7 +16360,7 @@
         <v>1027</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>546</v>
@@ -16367,7 +16375,7 @@
         <v>470</v>
       </c>
       <c r="I482" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="483" spans="1:9">
@@ -16375,7 +16383,7 @@
         <v>1028</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>546</v>
@@ -16390,7 +16398,7 @@
         <v>471</v>
       </c>
       <c r="I483" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="484" spans="1:9">
@@ -16398,7 +16406,7 @@
         <v>1029</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>546</v>
@@ -16413,7 +16421,7 @@
         <v>472</v>
       </c>
       <c r="I484" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -16421,7 +16429,7 @@
         <v>1030</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>546</v>
@@ -16436,7 +16444,7 @@
         <v>438</v>
       </c>
       <c r="I485" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -16444,7 +16452,7 @@
         <v>1031</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>546</v>
@@ -16459,7 +16467,7 @@
         <v>473</v>
       </c>
       <c r="I486" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="487" spans="1:9">
@@ -16467,7 +16475,7 @@
         <v>1032</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>546</v>
@@ -16482,7 +16490,7 @@
         <v>474</v>
       </c>
       <c r="I487" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="488" spans="1:9">
@@ -16490,7 +16498,7 @@
         <v>1033</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>546</v>
@@ -16505,7 +16513,7 @@
         <v>475</v>
       </c>
       <c r="I488" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -16513,7 +16521,7 @@
         <v>1034</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>546</v>
@@ -16528,7 +16536,7 @@
         <v>476</v>
       </c>
       <c r="I489" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="490" spans="1:9">
@@ -16536,7 +16544,7 @@
         <v>1035</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>546</v>
@@ -16551,7 +16559,7 @@
         <v>477</v>
       </c>
       <c r="I490" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="491" spans="1:9">
@@ -16559,7 +16567,7 @@
         <v>1036</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>546</v>
@@ -16574,7 +16582,7 @@
         <v>478</v>
       </c>
       <c r="I491" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -16582,7 +16590,7 @@
         <v>1037</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>546</v>
@@ -16597,7 +16605,7 @@
         <v>479</v>
       </c>
       <c r="I492" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -16605,7 +16613,7 @@
         <v>1038</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>546</v>
@@ -16620,7 +16628,7 @@
         <v>97</v>
       </c>
       <c r="I493" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -16628,7 +16636,7 @@
         <v>1039</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>546</v>
@@ -16643,7 +16651,7 @@
         <v>480</v>
       </c>
       <c r="I494" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -16651,7 +16659,7 @@
         <v>1040</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>546</v>
@@ -16666,7 +16674,7 @@
         <v>481</v>
       </c>
       <c r="I495" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -16674,7 +16682,7 @@
         <v>1041</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>546</v>
@@ -16689,7 +16697,7 @@
         <v>482</v>
       </c>
       <c r="I496" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -16697,7 +16705,7 @@
         <v>1042</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>546</v>
@@ -16712,7 +16720,7 @@
         <v>483</v>
       </c>
       <c r="I497" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -16720,7 +16728,7 @@
         <v>1043</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>546</v>
@@ -16735,7 +16743,7 @@
         <v>484</v>
       </c>
       <c r="I498" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -16743,7 +16751,7 @@
         <v>1044</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>546</v>
@@ -16758,7 +16766,7 @@
         <v>318</v>
       </c>
       <c r="I499" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -16766,7 +16774,7 @@
         <v>1045</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>546</v>
@@ -16781,7 +16789,7 @@
         <v>379</v>
       </c>
       <c r="I500" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="501" spans="1:9">
@@ -16789,7 +16797,7 @@
         <v>1046</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>546</v>
@@ -16804,7 +16812,7 @@
         <v>485</v>
       </c>
       <c r="I501" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -16812,7 +16820,7 @@
         <v>1047</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>546</v>
@@ -16827,7 +16835,7 @@
         <v>486</v>
       </c>
       <c r="I502" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -16835,7 +16843,7 @@
         <v>1048</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>546</v>
@@ -16850,7 +16858,7 @@
         <v>487</v>
       </c>
       <c r="I503" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -16858,7 +16866,7 @@
         <v>1049</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>546</v>
@@ -16873,7 +16881,7 @@
         <v>488</v>
       </c>
       <c r="I504" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -16881,7 +16889,7 @@
         <v>1050</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>546</v>
@@ -16896,7 +16904,7 @@
         <v>489</v>
       </c>
       <c r="I505" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="506" spans="1:9">
@@ -16904,7 +16912,7 @@
         <v>1051</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>546</v>
@@ -16919,7 +16927,7 @@
         <v>490</v>
       </c>
       <c r="I506" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="507" spans="1:9">
@@ -16927,7 +16935,7 @@
         <v>1052</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>546</v>
@@ -16942,7 +16950,7 @@
         <v>491</v>
       </c>
       <c r="I507" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="508" spans="1:9">
@@ -16950,7 +16958,7 @@
         <v>1053</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>546</v>
@@ -16965,7 +16973,7 @@
         <v>492</v>
       </c>
       <c r="I508" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -16973,7 +16981,7 @@
         <v>1054</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>546</v>
@@ -16988,7 +16996,7 @@
         <v>493</v>
       </c>
       <c r="I509" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -16996,7 +17004,7 @@
         <v>1055</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>546</v>
@@ -17011,7 +17019,7 @@
         <v>494</v>
       </c>
       <c r="I510" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="511" spans="1:9">
@@ -17019,7 +17027,7 @@
         <v>1056</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>546</v>
@@ -17034,7 +17042,7 @@
         <v>495</v>
       </c>
       <c r="I511" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="512" spans="1:9">
@@ -17042,7 +17050,7 @@
         <v>1057</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>546</v>
@@ -17057,7 +17065,7 @@
         <v>352</v>
       </c>
       <c r="I512" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="513" spans="1:9">
@@ -17065,7 +17073,7 @@
         <v>1058</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>546</v>
@@ -17080,7 +17088,7 @@
         <v>345</v>
       </c>
       <c r="I513" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -17088,7 +17096,7 @@
         <v>1059</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>546</v>
@@ -17103,7 +17111,7 @@
         <v>238</v>
       </c>
       <c r="I514" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -17111,7 +17119,7 @@
         <v>1060</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>546</v>
@@ -17126,7 +17134,7 @@
         <v>496</v>
       </c>
       <c r="I515" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="516" spans="1:9">
@@ -17134,7 +17142,7 @@
         <v>1061</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>546</v>
@@ -17149,7 +17157,7 @@
         <v>497</v>
       </c>
       <c r="I516" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -17157,7 +17165,7 @@
         <v>1062</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>546</v>
@@ -17172,7 +17180,7 @@
         <v>498</v>
       </c>
       <c r="I517" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -17180,7 +17188,7 @@
         <v>1063</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>546</v>
@@ -17195,7 +17203,7 @@
         <v>499</v>
       </c>
       <c r="I518" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -17203,7 +17211,7 @@
         <v>1064</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>546</v>
@@ -17218,7 +17226,7 @@
         <v>236</v>
       </c>
       <c r="I519" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -17226,7 +17234,7 @@
         <v>1065</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>546</v>
@@ -17241,7 +17249,7 @@
         <v>500</v>
       </c>
       <c r="I520" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -17249,7 +17257,7 @@
         <v>1066</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>546</v>
@@ -17264,7 +17272,7 @@
         <v>501</v>
       </c>
       <c r="I521" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="522" spans="1:9">
@@ -17272,7 +17280,7 @@
         <v>1067</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>546</v>
@@ -17287,7 +17295,7 @@
         <v>502</v>
       </c>
       <c r="I522" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -17295,7 +17303,7 @@
         <v>1068</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>546</v>
@@ -17310,7 +17318,7 @@
         <v>503</v>
       </c>
       <c r="I523" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="524" spans="1:9">
@@ -17318,7 +17326,7 @@
         <v>1069</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>546</v>
@@ -17333,7 +17341,7 @@
         <v>504</v>
       </c>
       <c r="I524" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -17341,7 +17349,7 @@
         <v>1070</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>546</v>
@@ -17356,7 +17364,7 @@
         <v>505</v>
       </c>
       <c r="I525" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="526" spans="1:9">
@@ -17364,7 +17372,7 @@
         <v>1071</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>546</v>
@@ -17379,7 +17387,7 @@
         <v>304</v>
       </c>
       <c r="I526" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -17387,7 +17395,7 @@
         <v>1072</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>546</v>
@@ -17402,7 +17410,7 @@
         <v>506</v>
       </c>
       <c r="I527" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -17410,7 +17418,7 @@
         <v>1073</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>546</v>
@@ -17425,7 +17433,7 @@
         <v>507</v>
       </c>
       <c r="I528" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -17433,7 +17441,7 @@
         <v>1074</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>546</v>
@@ -17448,7 +17456,7 @@
         <v>508</v>
       </c>
       <c r="I529" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="530" spans="1:9">
@@ -17456,7 +17464,7 @@
         <v>1075</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>546</v>
@@ -17471,7 +17479,7 @@
         <v>509</v>
       </c>
       <c r="I530" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -17479,7 +17487,7 @@
         <v>1076</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>546</v>
@@ -17497,7 +17505,7 @@
         <v>1077</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>546</v>
@@ -17512,7 +17520,7 @@
         <v>496</v>
       </c>
       <c r="I532" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -17520,7 +17528,7 @@
         <v>1078</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>546</v>
@@ -17535,7 +17543,7 @@
         <v>510</v>
       </c>
       <c r="I533" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="534" spans="1:9">
@@ -17543,7 +17551,7 @@
         <v>1079</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>546</v>
@@ -17558,7 +17566,7 @@
         <v>511</v>
       </c>
       <c r="I534" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -17566,7 +17574,7 @@
         <v>1080</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>546</v>
@@ -17581,7 +17589,7 @@
         <v>512</v>
       </c>
       <c r="I535" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -17589,7 +17597,7 @@
         <v>1081</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>546</v>
@@ -17604,7 +17612,7 @@
         <v>513</v>
       </c>
       <c r="I536" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="537" spans="1:9">
@@ -17612,7 +17620,7 @@
         <v>1082</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>546</v>
@@ -17627,7 +17635,7 @@
         <v>514</v>
       </c>
       <c r="I537" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -17635,7 +17643,7 @@
         <v>1083</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>546</v>
@@ -17650,7 +17658,7 @@
         <v>161</v>
       </c>
       <c r="I538" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="539" spans="1:9">
@@ -17658,7 +17666,7 @@
         <v>1084</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>546</v>
@@ -17673,7 +17681,7 @@
         <v>222</v>
       </c>
       <c r="I539" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -17681,7 +17689,7 @@
         <v>1085</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>546</v>
@@ -17696,7 +17704,7 @@
         <v>515</v>
       </c>
       <c r="I540" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -17704,7 +17712,7 @@
         <v>1086</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>546</v>
@@ -17719,7 +17727,7 @@
         <v>88</v>
       </c>
       <c r="I541" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -17727,7 +17735,7 @@
         <v>1087</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>546</v>
@@ -17742,7 +17750,7 @@
         <v>516</v>
       </c>
       <c r="I542" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -17750,7 +17758,7 @@
         <v>1088</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>546</v>
@@ -17765,7 +17773,7 @@
         <v>517</v>
       </c>
       <c r="I543" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -17773,7 +17781,7 @@
         <v>1089</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>546</v>
@@ -17788,7 +17796,7 @@
         <v>513</v>
       </c>
       <c r="I544" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="545" spans="1:1">

--- a/raw_data/Hebrew_WG/[Hebrew_WG].xlsx
+++ b/raw_data/Hebrew_WG/[Hebrew_WG].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="2011">
   <si>
     <t>לא לזוז</t>
   </si>
@@ -4840,6 +4840,1218 @@
   </si>
   <si>
     <t>light</t>
+  </si>
+  <si>
+    <t>uni_lemma</t>
+  </si>
+  <si>
+    <t>hee haw</t>
+  </si>
+  <si>
+    <t>bzzz</t>
+  </si>
+  <si>
+    <t>quack quack</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>opa</t>
+  </si>
+  <si>
+    <t>baa baa</t>
+  </si>
+  <si>
+    <t>peep peep</t>
+  </si>
+  <si>
+    <t>choo choo</t>
+  </si>
+  <si>
+    <t>shh</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>chicken (animal)</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>puppy</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>fish (animal)</t>
+  </si>
+  <si>
+    <t>teddybear</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>ladybug</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>hedgehog</t>
+  </si>
+  <si>
+    <t>bunny</t>
+  </si>
+  <si>
+    <t>parrot</t>
+  </si>
+  <si>
+    <t>rooster</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>ambulance</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>tractor</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>stroller</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>bubbles</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>beads</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>clown</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>rattle</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>tahini</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>pita</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>clementine</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>meatball</t>
+  </si>
+  <si>
+    <t>cracker</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>wafer</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>schnitzel</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>swimsuit</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>diaper</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>pajamas</t>
+  </si>
+  <si>
+    <t>zipper</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>curtain</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>armchair</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>oven</t>
+  </si>
+  <si>
+    <t>shutter</t>
+  </si>
+  <si>
+    <t>purse</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>flowerpot</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>bus station</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ten fingers</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>kick</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>tickle</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>turn around</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>naughty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>no one</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>cheerios</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>water (beverage)</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>raisin</t>
+  </si>
+  <si>
+    <t>fish (food)</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>hot dog</t>
+  </si>
+  <si>
+    <t>chicken (food)</t>
+  </si>
+  <si>
+    <t>orange (food)</t>
+  </si>
+  <si>
+    <t>tank top</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>shoe</t>
+  </si>
+  <si>
+    <t>sandal</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>tummy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>belly button</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>bathtub</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>crib</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>comb (object)</t>
+  </si>
+  <si>
+    <t>potty</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>shovel</t>
+  </si>
+  <si>
+    <t>tablecloth</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>faucet</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>backyard</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>slide (object)</t>
+  </si>
+  <si>
+    <t>rocking chair</t>
+  </si>
+  <si>
+    <t>work (place)</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>all gone</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>can i</t>
+  </si>
+  <si>
+    <t>don't</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>owie</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>night night</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>peekaboo</t>
+  </si>
+  <si>
+    <t>clap</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>light (action)</t>
+  </si>
+  <si>
+    <t>descend</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>swing (action)</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>look for</t>
+  </si>
+  <si>
+    <t>hurry</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>clean (action)</t>
+  </si>
+  <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>comb (action)</t>
+  </si>
+  <si>
+    <t>stand up</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>drink (action)</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>sabbath</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>yucky</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>how much</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>bib</t>
+  </si>
+  <si>
+    <t>clean (description)</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>dry (description)</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>little (description)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>beach</t>
   </si>
 </sst>
 </file>
@@ -4900,8 +6112,414 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4960,7 +6578,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="447">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4981,6 +6599,209 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5001,6 +6822,209 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5330,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H547"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5342,10 +7366,10 @@
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>518</v>
       </c>
@@ -5368,10 +7392,13 @@
         <v>524</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>545</v>
       </c>
@@ -5389,7 +7416,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>546</v>
       </c>
@@ -5407,7 +7434,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>547</v>
       </c>
@@ -5425,7 +7452,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>548</v>
       </c>
@@ -5448,7 +7475,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>549</v>
       </c>
@@ -5471,7 +7498,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>550</v>
       </c>
@@ -5494,7 +7521,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>551</v>
       </c>
@@ -5517,7 +7544,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>552</v>
       </c>
@@ -5540,7 +7567,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>553</v>
       </c>
@@ -5563,7 +7590,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>554</v>
       </c>
@@ -5586,7 +7613,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>555</v>
       </c>
@@ -5609,7 +7636,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>556</v>
       </c>
@@ -5632,7 +7659,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>557</v>
       </c>
@@ -5655,7 +7682,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>558</v>
       </c>
@@ -5678,7 +7705,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>559</v>
       </c>
@@ -5701,7 +7728,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>560</v>
       </c>
@@ -5724,7 +7751,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>561</v>
       </c>
@@ -5747,7 +7774,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>562</v>
       </c>
@@ -5770,7 +7797,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>563</v>
       </c>
@@ -5793,7 +7820,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>564</v>
       </c>
@@ -5816,7 +7843,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>565</v>
       </c>
@@ -5839,7 +7866,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>566</v>
       </c>
@@ -5862,7 +7889,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>567</v>
       </c>
@@ -5885,7 +7912,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>568</v>
       </c>
@@ -5908,7 +7935,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>569</v>
       </c>
@@ -5931,7 +7958,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>570</v>
       </c>
@@ -5954,7 +7981,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>571</v>
       </c>
@@ -5977,7 +8004,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>572</v>
       </c>
@@ -6000,7 +8027,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>573</v>
       </c>
@@ -6023,7 +8050,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>574</v>
       </c>
@@ -6045,8 +8072,11 @@
       <c r="G31" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>575</v>
       </c>
@@ -6068,8 +8098,11 @@
       <c r="G32" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>576</v>
       </c>
@@ -6091,8 +8124,11 @@
       <c r="G33" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>577</v>
       </c>
@@ -6114,8 +8150,11 @@
       <c r="G34" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>578</v>
       </c>
@@ -6137,8 +8176,11 @@
       <c r="G35" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>579</v>
       </c>
@@ -6160,8 +8202,11 @@
       <c r="G36" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="6" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>580</v>
       </c>
@@ -6183,8 +8228,11 @@
       <c r="G37" s="6" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>581</v>
       </c>
@@ -6206,8 +8254,11 @@
       <c r="G38" s="6" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>582</v>
       </c>
@@ -6229,8 +8280,11 @@
       <c r="G39" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>583</v>
       </c>
@@ -6252,8 +8306,11 @@
       <c r="G40" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>584</v>
       </c>
@@ -6275,8 +8332,11 @@
       <c r="G41" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>585</v>
       </c>
@@ -6298,8 +8358,11 @@
       <c r="G42" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>586</v>
       </c>
@@ -6321,8 +8384,11 @@
       <c r="G43" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>587</v>
       </c>
@@ -6344,8 +8410,11 @@
       <c r="G44" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>588</v>
       </c>
@@ -6367,8 +8436,11 @@
       <c r="G45" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>589</v>
       </c>
@@ -6390,8 +8462,11 @@
       <c r="G46" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>590</v>
       </c>
@@ -6413,8 +8488,11 @@
       <c r="G47" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>591</v>
       </c>
@@ -6436,8 +8514,11 @@
       <c r="G48" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>592</v>
       </c>
@@ -6459,8 +8540,11 @@
       <c r="G49" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>593</v>
       </c>
@@ -6482,8 +8566,11 @@
       <c r="G50" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>594</v>
       </c>
@@ -6505,8 +8592,11 @@
       <c r="G51" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>595</v>
       </c>
@@ -6528,8 +8618,11 @@
       <c r="G52" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>596</v>
       </c>
@@ -6551,8 +8644,11 @@
       <c r="G53" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>597</v>
       </c>
@@ -6574,8 +8670,11 @@
       <c r="G54" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>598</v>
       </c>
@@ -6597,8 +8696,11 @@
       <c r="G55" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>599</v>
       </c>
@@ -6620,8 +8722,11 @@
       <c r="G56" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>600</v>
       </c>
@@ -6643,8 +8748,11 @@
       <c r="G57" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>601</v>
       </c>
@@ -6666,8 +8774,11 @@
       <c r="G58" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>602</v>
       </c>
@@ -6689,8 +8800,11 @@
       <c r="G59" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>603</v>
       </c>
@@ -6712,8 +8826,11 @@
       <c r="G60" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>604</v>
       </c>
@@ -6735,8 +8852,11 @@
       <c r="G61" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>605</v>
       </c>
@@ -6758,8 +8878,11 @@
       <c r="G62" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>606</v>
       </c>
@@ -6781,8 +8904,11 @@
       <c r="G63" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>607</v>
       </c>
@@ -6804,8 +8930,11 @@
       <c r="G64" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>608</v>
       </c>
@@ -6827,8 +8956,11 @@
       <c r="G65" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>609</v>
       </c>
@@ -6850,8 +8982,11 @@
       <c r="G66" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>610</v>
       </c>
@@ -6873,8 +9008,11 @@
       <c r="G67" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>611</v>
       </c>
@@ -6896,8 +9034,11 @@
       <c r="G68" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>612</v>
       </c>
@@ -6919,8 +9060,11 @@
       <c r="G69" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>613</v>
       </c>
@@ -6942,8 +9086,11 @@
       <c r="G70" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>614</v>
       </c>
@@ -6965,8 +9112,11 @@
       <c r="G71" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>615</v>
       </c>
@@ -6988,8 +9138,11 @@
       <c r="G72" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>616</v>
       </c>
@@ -7011,8 +9164,11 @@
       <c r="G73" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>617</v>
       </c>
@@ -7034,8 +9190,11 @@
       <c r="G74" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>618</v>
       </c>
@@ -7057,8 +9216,11 @@
       <c r="G75" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>619</v>
       </c>
@@ -7080,8 +9242,11 @@
       <c r="G76" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>620</v>
       </c>
@@ -7103,8 +9268,11 @@
       <c r="G77" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>621</v>
       </c>
@@ -7126,8 +9294,11 @@
       <c r="G78" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>622</v>
       </c>
@@ -7149,8 +9320,11 @@
       <c r="G79" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>623</v>
       </c>
@@ -7172,8 +9346,11 @@
       <c r="G80" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>624</v>
       </c>
@@ -7195,8 +9372,11 @@
       <c r="G81" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>625</v>
       </c>
@@ -7218,8 +9398,11 @@
       <c r="G82" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>626</v>
       </c>
@@ -7241,8 +9424,11 @@
       <c r="G83" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>627</v>
       </c>
@@ -7264,8 +9450,11 @@
       <c r="G84" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>628</v>
       </c>
@@ -7287,8 +9476,11 @@
       <c r="G85" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>629</v>
       </c>
@@ -7310,8 +9502,11 @@
       <c r="G86" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>630</v>
       </c>
@@ -7333,8 +9528,11 @@
       <c r="G87" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>631</v>
       </c>
@@ -7356,8 +9554,11 @@
       <c r="G88" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>632</v>
       </c>
@@ -7379,8 +9580,11 @@
       <c r="G89" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>633</v>
       </c>
@@ -7402,8 +9606,11 @@
       <c r="G90" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>634</v>
       </c>
@@ -7425,8 +9632,11 @@
       <c r="G91" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>635</v>
       </c>
@@ -7448,8 +9658,11 @@
       <c r="G92" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>636</v>
       </c>
@@ -7471,8 +9684,11 @@
       <c r="G93" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>637</v>
       </c>
@@ -7494,8 +9710,11 @@
       <c r="G94" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>638</v>
       </c>
@@ -7517,8 +9736,11 @@
       <c r="G95" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>639</v>
       </c>
@@ -7540,8 +9762,11 @@
       <c r="G96" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
         <v>640</v>
       </c>
@@ -7563,8 +9788,11 @@
       <c r="G97" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>641</v>
       </c>
@@ -7586,8 +9814,11 @@
       <c r="G98" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>642</v>
       </c>
@@ -7609,8 +9840,11 @@
       <c r="G99" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>643</v>
       </c>
@@ -7632,8 +9866,11 @@
       <c r="G100" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>644</v>
       </c>
@@ -7655,8 +9892,11 @@
       <c r="G101" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>645</v>
       </c>
@@ -7678,8 +9918,11 @@
       <c r="G102" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>646</v>
       </c>
@@ -7701,8 +9944,11 @@
       <c r="G103" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>647</v>
       </c>
@@ -7724,8 +9970,11 @@
       <c r="G104" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>648</v>
       </c>
@@ -7747,8 +9996,11 @@
       <c r="G105" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>649</v>
       </c>
@@ -7770,8 +10022,11 @@
       <c r="G106" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>650</v>
       </c>
@@ -7793,8 +10048,11 @@
       <c r="G107" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>651</v>
       </c>
@@ -7816,8 +10074,11 @@
       <c r="G108" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
         <v>652</v>
       </c>
@@ -7839,8 +10100,11 @@
       <c r="G109" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>653</v>
       </c>
@@ -7862,8 +10126,11 @@
       <c r="G110" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>654</v>
       </c>
@@ -7885,8 +10152,11 @@
       <c r="G111" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>655</v>
       </c>
@@ -7908,8 +10178,11 @@
       <c r="G112" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>656</v>
       </c>
@@ -7931,8 +10204,11 @@
       <c r="G113" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>657</v>
       </c>
@@ -7954,8 +10230,11 @@
       <c r="G114" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>658</v>
       </c>
@@ -7977,8 +10256,11 @@
       <c r="G115" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>659</v>
       </c>
@@ -8000,8 +10282,11 @@
       <c r="G116" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>660</v>
       </c>
@@ -8023,8 +10308,11 @@
       <c r="G117" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>661</v>
       </c>
@@ -8046,8 +10334,11 @@
       <c r="G118" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>662</v>
       </c>
@@ -8069,8 +10360,11 @@
       <c r="G119" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>663</v>
       </c>
@@ -8092,8 +10386,11 @@
       <c r="G120" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
         <v>664</v>
       </c>
@@ -8115,8 +10412,11 @@
       <c r="G121" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>665</v>
       </c>
@@ -8138,8 +10438,11 @@
       <c r="G122" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>666</v>
       </c>
@@ -8161,8 +10464,11 @@
       <c r="G123" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>667</v>
       </c>
@@ -8184,8 +10490,11 @@
       <c r="G124" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
         <v>668</v>
       </c>
@@ -8207,8 +10516,11 @@
       <c r="G125" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
         <v>669</v>
       </c>
@@ -8230,8 +10542,11 @@
       <c r="G126" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>670</v>
       </c>
@@ -8253,8 +10568,11 @@
       <c r="G127" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
         <v>671</v>
       </c>
@@ -8276,8 +10594,11 @@
       <c r="G128" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
         <v>672</v>
       </c>
@@ -8299,8 +10620,11 @@
       <c r="G129" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>673</v>
       </c>
@@ -8322,8 +10646,11 @@
       <c r="G130" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
         <v>674</v>
       </c>
@@ -8345,8 +10672,11 @@
       <c r="G131" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>675</v>
       </c>
@@ -8368,8 +10698,11 @@
       <c r="G132" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
         <v>676</v>
       </c>
@@ -8391,8 +10724,11 @@
       <c r="G133" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>677</v>
       </c>
@@ -8414,8 +10750,11 @@
       <c r="G134" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
         <v>678</v>
       </c>
@@ -8437,8 +10776,11 @@
       <c r="G135" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
         <v>679</v>
       </c>
@@ -8460,8 +10802,11 @@
       <c r="G136" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
         <v>680</v>
       </c>
@@ -8483,8 +10828,11 @@
       <c r="G137" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
         <v>681</v>
       </c>
@@ -8506,8 +10854,11 @@
       <c r="G138" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
         <v>682</v>
       </c>
@@ -8529,8 +10880,11 @@
       <c r="G139" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
         <v>683</v>
       </c>
@@ -8552,8 +10906,11 @@
       <c r="G140" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
         <v>684</v>
       </c>
@@ -8575,8 +10932,11 @@
       <c r="G141" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>685</v>
       </c>
@@ -8598,8 +10958,11 @@
       <c r="G142" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
         <v>686</v>
       </c>
@@ -8621,8 +10984,11 @@
       <c r="G143" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
         <v>687</v>
       </c>
@@ -8644,8 +11010,11 @@
       <c r="G144" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
         <v>688</v>
       </c>
@@ -8667,8 +11036,11 @@
       <c r="G145" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
         <v>689</v>
       </c>
@@ -8690,8 +11062,11 @@
       <c r="G146" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
         <v>690</v>
       </c>
@@ -8713,8 +11088,11 @@
       <c r="G147" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
         <v>691</v>
       </c>
@@ -8736,8 +11114,11 @@
       <c r="G148" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
         <v>692</v>
       </c>
@@ -8759,8 +11140,11 @@
       <c r="G149" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
         <v>693</v>
       </c>
@@ -8782,8 +11166,11 @@
       <c r="G150" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
         <v>694</v>
       </c>
@@ -8805,8 +11192,11 @@
       <c r="G151" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
         <v>695</v>
       </c>
@@ -8828,8 +11218,11 @@
       <c r="G152" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
         <v>696</v>
       </c>
@@ -8851,8 +11244,11 @@
       <c r="G153" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
         <v>697</v>
       </c>
@@ -8874,8 +11270,11 @@
       <c r="G154" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
         <v>698</v>
       </c>
@@ -8897,8 +11296,11 @@
       <c r="G155" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
         <v>699</v>
       </c>
@@ -8920,8 +11322,11 @@
       <c r="G156" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
         <v>700</v>
       </c>
@@ -8943,8 +11348,11 @@
       <c r="G157" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
         <v>701</v>
       </c>
@@ -8966,8 +11374,11 @@
       <c r="G158" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
         <v>702</v>
       </c>
@@ -8989,8 +11400,11 @@
       <c r="G159" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
         <v>703</v>
       </c>
@@ -9012,8 +11426,11 @@
       <c r="G160" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
         <v>704</v>
       </c>
@@ -9035,8 +11452,11 @@
       <c r="G161" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
         <v>705</v>
       </c>
@@ -9058,8 +11478,11 @@
       <c r="G162" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
         <v>706</v>
       </c>
@@ -9081,8 +11504,11 @@
       <c r="G163" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
         <v>707</v>
       </c>
@@ -9104,8 +11530,11 @@
       <c r="G164" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
         <v>708</v>
       </c>
@@ -9127,8 +11556,11 @@
       <c r="G165" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
         <v>709</v>
       </c>
@@ -9150,8 +11582,11 @@
       <c r="G166" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
         <v>710</v>
       </c>
@@ -9173,8 +11608,11 @@
       <c r="G167" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
         <v>711</v>
       </c>
@@ -9196,8 +11634,11 @@
       <c r="G168" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
         <v>712</v>
       </c>
@@ -9219,8 +11660,11 @@
       <c r="G169" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
         <v>713</v>
       </c>
@@ -9242,8 +11686,11 @@
       <c r="G170" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
         <v>714</v>
       </c>
@@ -9265,8 +11712,11 @@
       <c r="G171" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
         <v>715</v>
       </c>
@@ -9288,8 +11738,11 @@
       <c r="G172" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
         <v>716</v>
       </c>
@@ -9311,8 +11764,11 @@
       <c r="G173" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
         <v>717</v>
       </c>
@@ -9334,8 +11790,11 @@
       <c r="G174" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
         <v>718</v>
       </c>
@@ -9357,8 +11816,11 @@
       <c r="G175" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>719</v>
       </c>
@@ -9380,8 +11842,11 @@
       <c r="G176" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
         <v>720</v>
       </c>
@@ -9403,8 +11868,11 @@
       <c r="G177" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
         <v>721</v>
       </c>
@@ -9426,8 +11894,11 @@
       <c r="G178" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
         <v>722</v>
       </c>
@@ -9449,8 +11920,11 @@
       <c r="G179" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
         <v>723</v>
       </c>
@@ -9472,8 +11946,11 @@
       <c r="G180" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
         <v>724</v>
       </c>
@@ -9495,8 +11972,11 @@
       <c r="G181" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
         <v>725</v>
       </c>
@@ -9518,8 +11998,11 @@
       <c r="G182" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
         <v>726</v>
       </c>
@@ -9541,8 +12024,11 @@
       <c r="G183" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
         <v>727</v>
       </c>
@@ -9564,8 +12050,11 @@
       <c r="G184" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
         <v>728</v>
       </c>
@@ -9587,8 +12076,11 @@
       <c r="G185" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
         <v>729</v>
       </c>
@@ -9610,8 +12102,11 @@
       <c r="G186" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
         <v>730</v>
       </c>
@@ -9633,8 +12128,11 @@
       <c r="G187" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
         <v>731</v>
       </c>
@@ -9656,8 +12154,11 @@
       <c r="G188" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
         <v>732</v>
       </c>
@@ -9679,8 +12180,11 @@
       <c r="G189" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>733</v>
       </c>
@@ -9702,8 +12206,11 @@
       <c r="G190" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
         <v>734</v>
       </c>
@@ -9725,8 +12232,11 @@
       <c r="G191" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
         <v>735</v>
       </c>
@@ -9748,8 +12258,11 @@
       <c r="G192" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
         <v>736</v>
       </c>
@@ -9771,8 +12284,11 @@
       <c r="G193" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
         <v>737</v>
       </c>
@@ -9794,8 +12310,11 @@
       <c r="G194" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
         <v>738</v>
       </c>
@@ -9817,8 +12336,11 @@
       <c r="G195" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
         <v>739</v>
       </c>
@@ -9840,8 +12362,11 @@
       <c r="G196" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
         <v>740</v>
       </c>
@@ -9863,8 +12388,11 @@
       <c r="G197" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
         <v>741</v>
       </c>
@@ -9886,8 +12414,11 @@
       <c r="G198" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
         <v>742</v>
       </c>
@@ -9909,8 +12440,11 @@
       <c r="G199" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
         <v>743</v>
       </c>
@@ -9932,8 +12466,11 @@
       <c r="G200" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
         <v>744</v>
       </c>
@@ -9955,8 +12492,11 @@
       <c r="G201" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
         <v>745</v>
       </c>
@@ -9978,8 +12518,11 @@
       <c r="G202" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
         <v>746</v>
       </c>
@@ -10001,8 +12544,11 @@
       <c r="G203" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
         <v>747</v>
       </c>
@@ -10024,8 +12570,11 @@
       <c r="G204" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
         <v>748</v>
       </c>
@@ -10047,8 +12596,11 @@
       <c r="G205" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
         <v>749</v>
       </c>
@@ -10070,8 +12622,11 @@
       <c r="G206" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
         <v>750</v>
       </c>
@@ -10093,8 +12648,11 @@
       <c r="G207" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
         <v>751</v>
       </c>
@@ -10116,8 +12674,11 @@
       <c r="G208" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
         <v>752</v>
       </c>
@@ -10139,8 +12700,11 @@
       <c r="G209" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
         <v>753</v>
       </c>
@@ -10162,8 +12726,11 @@
       <c r="G210" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
         <v>754</v>
       </c>
@@ -10185,8 +12752,11 @@
       <c r="G211" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="s">
         <v>755</v>
       </c>
@@ -10208,8 +12778,11 @@
       <c r="G212" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
         <v>756</v>
       </c>
@@ -10231,8 +12804,11 @@
       <c r="G213" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="s">
         <v>757</v>
       </c>
@@ -10254,8 +12830,11 @@
       <c r="G214" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
         <v>758</v>
       </c>
@@ -10277,8 +12856,12 @@
       <c r="G215" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
         <v>759</v>
       </c>
@@ -10300,8 +12883,11 @@
       <c r="G216" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
         <v>760</v>
       </c>
@@ -10323,8 +12909,11 @@
       <c r="G217" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
         <v>761</v>
       </c>
@@ -10346,8 +12935,11 @@
       <c r="G218" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
         <v>762</v>
       </c>
@@ -10369,8 +12961,11 @@
       <c r="G219" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="s">
         <v>763</v>
       </c>
@@ -10392,8 +12987,11 @@
       <c r="G220" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
         <v>764</v>
       </c>
@@ -10415,8 +13013,11 @@
       <c r="G221" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
         <v>765</v>
       </c>
@@ -10438,8 +13039,11 @@
       <c r="G222" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
         <v>766</v>
       </c>
@@ -10461,8 +13065,11 @@
       <c r="G223" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="s">
         <v>767</v>
       </c>
@@ -10484,8 +13091,11 @@
       <c r="G224" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1" t="s">
         <v>768</v>
       </c>
@@ -10507,8 +13117,11 @@
       <c r="G225" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1" t="s">
         <v>769</v>
       </c>
@@ -10530,8 +13143,11 @@
       <c r="G226" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1" t="s">
         <v>770</v>
       </c>
@@ -10553,8 +13169,11 @@
       <c r="G227" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1" t="s">
         <v>771</v>
       </c>
@@ -10576,8 +13195,11 @@
       <c r="G228" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1" t="s">
         <v>772</v>
       </c>
@@ -10599,8 +13221,11 @@
       <c r="G229" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
         <v>773</v>
       </c>
@@ -10622,8 +13247,11 @@
       <c r="G230" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1" t="s">
         <v>774</v>
       </c>
@@ -10645,8 +13273,11 @@
       <c r="G231" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
         <v>775</v>
       </c>
@@ -10668,8 +13299,11 @@
       <c r="G232" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
         <v>776</v>
       </c>
@@ -10691,8 +13325,11 @@
       <c r="G233" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
         <v>777</v>
       </c>
@@ -10714,8 +13351,11 @@
       <c r="G234" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
         <v>778</v>
       </c>
@@ -10737,8 +13377,11 @@
       <c r="G235" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
         <v>779</v>
       </c>
@@ -10760,8 +13403,11 @@
       <c r="G236" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
         <v>780</v>
       </c>
@@ -10783,8 +13429,11 @@
       <c r="G237" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
         <v>781</v>
       </c>
@@ -10806,8 +13455,11 @@
       <c r="G238" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1" t="s">
         <v>782</v>
       </c>
@@ -10829,8 +13481,11 @@
       <c r="G239" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1" t="s">
         <v>783</v>
       </c>
@@ -10852,8 +13507,11 @@
       <c r="G240" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
         <v>784</v>
       </c>
@@ -10875,8 +13533,11 @@
       <c r="G241" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1" t="s">
         <v>785</v>
       </c>
@@ -10898,8 +13559,11 @@
       <c r="G242" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
         <v>786</v>
       </c>
@@ -10921,8 +13585,11 @@
       <c r="G243" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1" t="s">
         <v>787</v>
       </c>
@@ -10944,8 +13611,11 @@
       <c r="G244" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1" t="s">
         <v>788</v>
       </c>
@@ -10967,8 +13637,11 @@
       <c r="G245" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1" t="s">
         <v>789</v>
       </c>
@@ -10990,8 +13663,11 @@
       <c r="G246" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1" t="s">
         <v>790</v>
       </c>
@@ -11013,8 +13689,11 @@
       <c r="G247" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1" t="s">
         <v>791</v>
       </c>
@@ -11036,8 +13715,11 @@
       <c r="G248" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1" t="s">
         <v>792</v>
       </c>
@@ -11059,8 +13741,11 @@
       <c r="G249" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1" t="s">
         <v>793</v>
       </c>
@@ -11082,8 +13767,11 @@
       <c r="G250" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
         <v>794</v>
       </c>
@@ -11105,8 +13793,11 @@
       <c r="G251" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
         <v>795</v>
       </c>
@@ -11128,8 +13819,11 @@
       <c r="G252" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
         <v>796</v>
       </c>
@@ -11151,8 +13845,11 @@
       <c r="G253" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
         <v>797</v>
       </c>
@@ -11174,8 +13871,11 @@
       <c r="G254" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
         <v>798</v>
       </c>
@@ -11197,8 +13897,11 @@
       <c r="G255" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
         <v>799</v>
       </c>
@@ -11220,8 +13923,11 @@
       <c r="G256" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1" t="s">
         <v>800</v>
       </c>
@@ -11243,8 +13949,11 @@
       <c r="G257" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
         <v>801</v>
       </c>
@@ -11266,8 +13975,11 @@
       <c r="G258" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
         <v>802</v>
       </c>
@@ -11289,8 +14001,11 @@
       <c r="G259" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="1" t="s">
         <v>803</v>
       </c>
@@ -11312,8 +14027,11 @@
       <c r="G260" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="1" t="s">
         <v>804</v>
       </c>
@@ -11335,8 +14053,11 @@
       <c r="G261" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1" t="s">
         <v>805</v>
       </c>
@@ -11358,8 +14079,11 @@
       <c r="G262" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="1" t="s">
         <v>806</v>
       </c>
@@ -11381,8 +14105,11 @@
       <c r="G263" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="1" t="s">
         <v>807</v>
       </c>
@@ -11404,8 +14131,11 @@
       <c r="G264" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="1" t="s">
         <v>808</v>
       </c>
@@ -11427,8 +14157,11 @@
       <c r="G265" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="1" t="s">
         <v>809</v>
       </c>
@@ -11450,8 +14183,11 @@
       <c r="G266" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="1" t="s">
         <v>810</v>
       </c>
@@ -11473,8 +14209,11 @@
       <c r="G267" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="1" t="s">
         <v>811</v>
       </c>
@@ -11496,8 +14235,11 @@
       <c r="G268" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="1" t="s">
         <v>812</v>
       </c>
@@ -11519,8 +14261,11 @@
       <c r="G269" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="1" t="s">
         <v>813</v>
       </c>
@@ -11542,8 +14287,11 @@
       <c r="G270" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="1" t="s">
         <v>814</v>
       </c>
@@ -11565,8 +14313,11 @@
       <c r="G271" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="1" t="s">
         <v>815</v>
       </c>
@@ -11588,8 +14339,11 @@
       <c r="G272" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="1" t="s">
         <v>816</v>
       </c>
@@ -11611,8 +14365,11 @@
       <c r="G273" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="1" t="s">
         <v>817</v>
       </c>
@@ -11634,8 +14391,11 @@
       <c r="G274" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="1" t="s">
         <v>818</v>
       </c>
@@ -11657,8 +14417,11 @@
       <c r="G275" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="1" t="s">
         <v>819</v>
       </c>
@@ -11680,8 +14443,11 @@
       <c r="G276" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="1" t="s">
         <v>820</v>
       </c>
@@ -11703,8 +14469,11 @@
       <c r="G277" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
         <v>821</v>
       </c>
@@ -11726,8 +14495,11 @@
       <c r="G278" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="1" t="s">
         <v>822</v>
       </c>
@@ -11749,8 +14521,11 @@
       <c r="G279" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="1" t="s">
         <v>823</v>
       </c>
@@ -11772,8 +14547,11 @@
       <c r="G280" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="1" t="s">
         <v>824</v>
       </c>
@@ -11795,8 +14573,11 @@
       <c r="G281" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="1" t="s">
         <v>825</v>
       </c>
@@ -11818,8 +14599,11 @@
       <c r="G282" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="1" t="s">
         <v>826</v>
       </c>
@@ -11841,8 +14625,11 @@
       <c r="G283" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="1" t="s">
         <v>827</v>
       </c>
@@ -11864,8 +14651,11 @@
       <c r="G284" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="1" t="s">
         <v>828</v>
       </c>
@@ -11887,8 +14677,11 @@
       <c r="G285" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="1" t="s">
         <v>829</v>
       </c>
@@ -11910,8 +14703,11 @@
       <c r="G286" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="1" t="s">
         <v>830</v>
       </c>
@@ -11933,8 +14729,11 @@
       <c r="G287" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="1" t="s">
         <v>831</v>
       </c>
@@ -11956,8 +14755,11 @@
       <c r="G288" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="1" t="s">
         <v>832</v>
       </c>
@@ -11979,8 +14781,11 @@
       <c r="G289" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="1" t="s">
         <v>833</v>
       </c>
@@ -12002,8 +14807,11 @@
       <c r="G290" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="1" t="s">
         <v>834</v>
       </c>
@@ -12025,8 +14833,11 @@
       <c r="G291" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="1" t="s">
         <v>835</v>
       </c>
@@ -12048,8 +14859,11 @@
       <c r="G292" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="1" t="s">
         <v>836</v>
       </c>
@@ -12071,8 +14885,11 @@
       <c r="G293" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="1" t="s">
         <v>837</v>
       </c>
@@ -12094,8 +14911,11 @@
       <c r="G294" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="1" t="s">
         <v>838</v>
       </c>
@@ -12117,8 +14937,11 @@
       <c r="G295" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="1" t="s">
         <v>839</v>
       </c>
@@ -12140,8 +14963,11 @@
       <c r="G296" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="1" t="s">
         <v>840</v>
       </c>
@@ -12163,8 +14989,11 @@
       <c r="G297" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="1" t="s">
         <v>841</v>
       </c>
@@ -12186,8 +15015,11 @@
       <c r="G298" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="1" t="s">
         <v>842</v>
       </c>
@@ -12209,8 +15041,11 @@
       <c r="G299" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="1" t="s">
         <v>843</v>
       </c>
@@ -12232,8 +15067,11 @@
       <c r="G300" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="1" t="s">
         <v>844</v>
       </c>
@@ -12255,8 +15093,11 @@
       <c r="G301" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="1" t="s">
         <v>845</v>
       </c>
@@ -12278,8 +15119,11 @@
       <c r="G302" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="1" t="s">
         <v>846</v>
       </c>
@@ -12301,8 +15145,11 @@
       <c r="G303" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="1" t="s">
         <v>847</v>
       </c>
@@ -12324,8 +15171,11 @@
       <c r="G304" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="1" t="s">
         <v>848</v>
       </c>
@@ -12347,8 +15197,11 @@
       <c r="G305" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="1" t="s">
         <v>849</v>
       </c>
@@ -12370,8 +15223,11 @@
       <c r="G306" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="1" t="s">
         <v>850</v>
       </c>
@@ -12393,8 +15249,11 @@
       <c r="G307" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="1" t="s">
         <v>851</v>
       </c>
@@ -12416,8 +15275,11 @@
       <c r="G308" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="1" t="s">
         <v>852</v>
       </c>
@@ -12439,8 +15301,11 @@
       <c r="G309" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="1" t="s">
         <v>853</v>
       </c>
@@ -12462,8 +15327,11 @@
       <c r="G310" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="1" t="s">
         <v>854</v>
       </c>
@@ -12485,8 +15353,11 @@
       <c r="G311" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="1" t="s">
         <v>855</v>
       </c>
@@ -12508,8 +15379,11 @@
       <c r="G312" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="1" t="s">
         <v>856</v>
       </c>
@@ -12531,8 +15405,11 @@
       <c r="G313" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="1" t="s">
         <v>857</v>
       </c>
@@ -12554,8 +15431,11 @@
       <c r="G314" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="1" t="s">
         <v>858</v>
       </c>
@@ -12577,8 +15457,11 @@
       <c r="G315" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="1" t="s">
         <v>859</v>
       </c>
@@ -12600,8 +15483,11 @@
       <c r="G316" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="1" t="s">
         <v>860</v>
       </c>
@@ -12623,8 +15509,11 @@
       <c r="G317" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="1" t="s">
         <v>861</v>
       </c>
@@ -12646,8 +15535,11 @@
       <c r="G318" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="1" t="s">
         <v>862</v>
       </c>
@@ -12669,8 +15561,11 @@
       <c r="G319" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="1" t="s">
         <v>863</v>
       </c>
@@ -12692,8 +15587,11 @@
       <c r="G320" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="1" t="s">
         <v>864</v>
       </c>
@@ -12715,8 +15613,11 @@
       <c r="G321" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="1" t="s">
         <v>865</v>
       </c>
@@ -12738,8 +15639,11 @@
       <c r="G322" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="1" t="s">
         <v>866</v>
       </c>
@@ -12761,8 +15665,11 @@
       <c r="G323" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="1" t="s">
         <v>867</v>
       </c>
@@ -12784,8 +15691,11 @@
       <c r="G324" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="1" t="s">
         <v>868</v>
       </c>
@@ -12807,8 +15717,11 @@
       <c r="G325" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="1" t="s">
         <v>869</v>
       </c>
@@ -12830,8 +15743,11 @@
       <c r="G326" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="1" t="s">
         <v>870</v>
       </c>
@@ -12853,8 +15769,11 @@
       <c r="G327" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="1" t="s">
         <v>871</v>
       </c>
@@ -12876,8 +15795,11 @@
       <c r="G328" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="1" t="s">
         <v>872</v>
       </c>
@@ -12899,8 +15821,11 @@
       <c r="G329" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="1" t="s">
         <v>873</v>
       </c>
@@ -12922,8 +15847,11 @@
       <c r="G330" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="1" t="s">
         <v>874</v>
       </c>
@@ -12945,8 +15873,11 @@
       <c r="G331" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="1" t="s">
         <v>875</v>
       </c>
@@ -12968,8 +15899,11 @@
       <c r="G332" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="1" t="s">
         <v>876</v>
       </c>
@@ -12991,8 +15925,11 @@
       <c r="G333" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="1" t="s">
         <v>877</v>
       </c>
@@ -13014,8 +15951,11 @@
       <c r="G334" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="1" t="s">
         <v>878</v>
       </c>
@@ -13037,8 +15977,11 @@
       <c r="G335" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="1" t="s">
         <v>879</v>
       </c>
@@ -13060,8 +16003,11 @@
       <c r="G336" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="1" t="s">
         <v>880</v>
       </c>
@@ -13083,8 +16029,11 @@
       <c r="G337" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="1" t="s">
         <v>881</v>
       </c>
@@ -13106,8 +16055,11 @@
       <c r="G338" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="1" t="s">
         <v>882</v>
       </c>
@@ -13129,8 +16081,11 @@
       <c r="G339" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="1" t="s">
         <v>883</v>
       </c>
@@ -13152,8 +16107,11 @@
       <c r="G340" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="1" t="s">
         <v>884</v>
       </c>
@@ -13175,8 +16133,11 @@
       <c r="G341" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="1" t="s">
         <v>885</v>
       </c>
@@ -13198,8 +16159,11 @@
       <c r="G342" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="1" t="s">
         <v>886</v>
       </c>
@@ -13221,8 +16185,11 @@
       <c r="G343" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="1" t="s">
         <v>887</v>
       </c>
@@ -13244,8 +16211,11 @@
       <c r="G344" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="1" t="s">
         <v>888</v>
       </c>
@@ -13267,8 +16237,11 @@
       <c r="G345" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="1" t="s">
         <v>889</v>
       </c>
@@ -13290,8 +16263,11 @@
       <c r="G346" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="1" t="s">
         <v>890</v>
       </c>
@@ -13313,8 +16289,11 @@
       <c r="G347" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="1" t="s">
         <v>891</v>
       </c>
@@ -13336,8 +16315,11 @@
       <c r="G348" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="1" t="s">
         <v>892</v>
       </c>
@@ -13359,8 +16341,11 @@
       <c r="G349" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="1" t="s">
         <v>893</v>
       </c>
@@ -13382,8 +16367,11 @@
       <c r="G350" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="1" t="s">
         <v>894</v>
       </c>
@@ -13405,8 +16393,11 @@
       <c r="G351" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="1" t="s">
         <v>895</v>
       </c>
@@ -13428,8 +16419,11 @@
       <c r="G352" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="1" t="s">
         <v>896</v>
       </c>
@@ -13451,8 +16445,11 @@
       <c r="G353" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="1" t="s">
         <v>897</v>
       </c>
@@ -13474,8 +16471,11 @@
       <c r="G354" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="1" t="s">
         <v>898</v>
       </c>
@@ -13497,8 +16497,11 @@
       <c r="G355" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="1" t="s">
         <v>899</v>
       </c>
@@ -13520,8 +16523,11 @@
       <c r="G356" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="1" t="s">
         <v>900</v>
       </c>
@@ -13543,8 +16549,11 @@
       <c r="G357" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="1" t="s">
         <v>901</v>
       </c>
@@ -13566,8 +16575,11 @@
       <c r="G358" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="1" t="s">
         <v>902</v>
       </c>
@@ -13589,8 +16601,11 @@
       <c r="G359" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="1" t="s">
         <v>903</v>
       </c>
@@ -13612,8 +16627,11 @@
       <c r="G360" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="1" t="s">
         <v>904</v>
       </c>
@@ -13635,8 +16653,11 @@
       <c r="G361" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="1" t="s">
         <v>905</v>
       </c>
@@ -13658,8 +16679,11 @@
       <c r="G362" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="1" t="s">
         <v>906</v>
       </c>
@@ -13681,8 +16705,11 @@
       <c r="G363" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="1" t="s">
         <v>907</v>
       </c>
@@ -13704,8 +16731,11 @@
       <c r="G364" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="1" t="s">
         <v>908</v>
       </c>
@@ -13727,8 +16757,11 @@
       <c r="G365" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="1" t="s">
         <v>909</v>
       </c>
@@ -13750,8 +16783,11 @@
       <c r="G366" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="1" t="s">
         <v>910</v>
       </c>
@@ -13773,8 +16809,11 @@
       <c r="G367" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="1" t="s">
         <v>911</v>
       </c>
@@ -13796,8 +16835,11 @@
       <c r="G368" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="1" t="s">
         <v>912</v>
       </c>
@@ -13819,8 +16861,11 @@
       <c r="G369" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="1" t="s">
         <v>913</v>
       </c>
@@ -13842,8 +16887,11 @@
       <c r="G370" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="1" t="s">
         <v>914</v>
       </c>
@@ -13865,8 +16913,11 @@
       <c r="G371" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="1" t="s">
         <v>915</v>
       </c>
@@ -13888,8 +16939,11 @@
       <c r="G372" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="1" t="s">
         <v>916</v>
       </c>
@@ -13911,8 +16965,11 @@
       <c r="G373" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="1" t="s">
         <v>917</v>
       </c>
@@ -13934,8 +16991,11 @@
       <c r="G374" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="1" t="s">
         <v>918</v>
       </c>
@@ -13957,8 +17017,11 @@
       <c r="G375" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="1" t="s">
         <v>919</v>
       </c>
@@ -13980,8 +17043,11 @@
       <c r="G376" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="1" t="s">
         <v>920</v>
       </c>
@@ -14003,8 +17069,11 @@
       <c r="G377" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="1" t="s">
         <v>921</v>
       </c>
@@ -14026,8 +17095,11 @@
       <c r="G378" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="1" t="s">
         <v>922</v>
       </c>
@@ -14049,8 +17121,11 @@
       <c r="G379" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="1" t="s">
         <v>923</v>
       </c>
@@ -14072,8 +17147,11 @@
       <c r="G380" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="1" t="s">
         <v>924</v>
       </c>
@@ -14095,8 +17173,11 @@
       <c r="G381" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="1" t="s">
         <v>925</v>
       </c>
@@ -14118,8 +17199,11 @@
       <c r="G382" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="1" t="s">
         <v>926</v>
       </c>
@@ -14141,8 +17225,11 @@
       <c r="G383" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="1" t="s">
         <v>927</v>
       </c>
@@ -14164,8 +17251,11 @@
       <c r="G384" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="1" t="s">
         <v>928</v>
       </c>
@@ -14187,8 +17277,11 @@
       <c r="G385" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="1" t="s">
         <v>929</v>
       </c>
@@ -14210,8 +17303,11 @@
       <c r="G386" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="1" t="s">
         <v>930</v>
       </c>
@@ -14233,8 +17329,11 @@
       <c r="G387" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="1" t="s">
         <v>931</v>
       </c>
@@ -14256,8 +17355,11 @@
       <c r="G388" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="1" t="s">
         <v>932</v>
       </c>
@@ -14279,8 +17381,11 @@
       <c r="G389" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="1" t="s">
         <v>933</v>
       </c>
@@ -14302,8 +17407,11 @@
       <c r="G390" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="1" t="s">
         <v>934</v>
       </c>
@@ -14325,8 +17433,11 @@
       <c r="G391" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="1" t="s">
         <v>935</v>
       </c>
@@ -14348,8 +17459,11 @@
       <c r="G392" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="1" t="s">
         <v>936</v>
       </c>
@@ -14371,8 +17485,11 @@
       <c r="G393" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="1" t="s">
         <v>937</v>
       </c>
@@ -14394,8 +17511,11 @@
       <c r="G394" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="1" t="s">
         <v>938</v>
       </c>
@@ -14417,8 +17537,11 @@
       <c r="G395" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="1" t="s">
         <v>939</v>
       </c>
@@ -14440,8 +17563,11 @@
       <c r="G396" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="1" t="s">
         <v>940</v>
       </c>
@@ -14463,8 +17589,11 @@
       <c r="G397" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="1" t="s">
         <v>941</v>
       </c>
@@ -14486,8 +17615,11 @@
       <c r="G398" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="1" t="s">
         <v>942</v>
       </c>
@@ -14509,8 +17641,11 @@
       <c r="G399" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="1" t="s">
         <v>943</v>
       </c>
@@ -14532,8 +17667,11 @@
       <c r="G400" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="1" t="s">
         <v>944</v>
       </c>
@@ -14555,8 +17693,11 @@
       <c r="G401" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" s="1" t="s">
         <v>945</v>
       </c>
@@ -14578,8 +17719,11 @@
       <c r="G402" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" s="1" t="s">
         <v>946</v>
       </c>
@@ -14601,8 +17745,11 @@
       <c r="G403" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" s="1" t="s">
         <v>947</v>
       </c>
@@ -14624,8 +17771,11 @@
       <c r="G404" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" s="1" t="s">
         <v>948</v>
       </c>
@@ -14647,8 +17797,11 @@
       <c r="G405" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" s="1" t="s">
         <v>949</v>
       </c>
@@ -14670,8 +17823,11 @@
       <c r="G406" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" s="1" t="s">
         <v>950</v>
       </c>
@@ -14693,8 +17849,11 @@
       <c r="G407" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="1" t="s">
         <v>951</v>
       </c>
@@ -14716,8 +17875,11 @@
       <c r="G408" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" s="1" t="s">
         <v>952</v>
       </c>
@@ -14739,8 +17901,11 @@
       <c r="G409" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" s="1" t="s">
         <v>953</v>
       </c>
@@ -14762,8 +17927,11 @@
       <c r="G410" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="1" t="s">
         <v>954</v>
       </c>
@@ -14785,8 +17953,11 @@
       <c r="G411" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" s="1" t="s">
         <v>955</v>
       </c>
@@ -14808,8 +17979,11 @@
       <c r="G412" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" s="1" t="s">
         <v>956</v>
       </c>
@@ -14831,8 +18005,11 @@
       <c r="G413" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="1" t="s">
         <v>957</v>
       </c>
@@ -14854,8 +18031,11 @@
       <c r="G414" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" s="1" t="s">
         <v>958</v>
       </c>
@@ -14877,8 +18057,11 @@
       <c r="G415" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="1" t="s">
         <v>959</v>
       </c>
@@ -14900,8 +18083,11 @@
       <c r="G416" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" s="1" t="s">
         <v>960</v>
       </c>
@@ -14923,8 +18109,11 @@
       <c r="G417" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" s="1" t="s">
         <v>961</v>
       </c>
@@ -14946,8 +18135,11 @@
       <c r="G418" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" s="1" t="s">
         <v>962</v>
       </c>
@@ -14969,8 +18161,11 @@
       <c r="G419" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" s="1" t="s">
         <v>963</v>
       </c>
@@ -14992,8 +18187,11 @@
       <c r="G420" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" s="1" t="s">
         <v>964</v>
       </c>
@@ -15015,8 +18213,11 @@
       <c r="G421" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" s="1" t="s">
         <v>965</v>
       </c>
@@ -15038,8 +18239,11 @@
       <c r="G422" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" s="1" t="s">
         <v>966</v>
       </c>
@@ -15061,8 +18265,11 @@
       <c r="G423" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="1" t="s">
         <v>967</v>
       </c>
@@ -15084,8 +18291,11 @@
       <c r="G424" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" s="1" t="s">
         <v>968</v>
       </c>
@@ -15107,8 +18317,11 @@
       <c r="G425" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" s="1" t="s">
         <v>969</v>
       </c>
@@ -15130,8 +18343,11 @@
       <c r="G426" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="1" t="s">
         <v>970</v>
       </c>
@@ -15153,8 +18369,11 @@
       <c r="G427" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="1" t="s">
         <v>971</v>
       </c>
@@ -15176,8 +18395,11 @@
       <c r="G428" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="1" t="s">
         <v>972</v>
       </c>
@@ -15199,8 +18421,11 @@
       <c r="G429" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="1" t="s">
         <v>973</v>
       </c>
@@ -15222,8 +18447,11 @@
       <c r="G430" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" s="1" t="s">
         <v>974</v>
       </c>
@@ -15245,8 +18473,11 @@
       <c r="G431" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" s="1" t="s">
         <v>975</v>
       </c>
@@ -15268,8 +18499,11 @@
       <c r="G432" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" s="1" t="s">
         <v>976</v>
       </c>
@@ -15291,8 +18525,11 @@
       <c r="G433" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434" s="1" t="s">
         <v>977</v>
       </c>
@@ -15314,8 +18551,11 @@
       <c r="G434" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435" s="1" t="s">
         <v>978</v>
       </c>
@@ -15337,8 +18577,11 @@
       <c r="G435" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436" s="1" t="s">
         <v>979</v>
       </c>
@@ -15360,8 +18603,11 @@
       <c r="G436" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437" s="1" t="s">
         <v>980</v>
       </c>
@@ -15383,8 +18629,11 @@
       <c r="G437" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" s="1" t="s">
         <v>981</v>
       </c>
@@ -15406,8 +18655,11 @@
       <c r="G438" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439" s="1" t="s">
         <v>982</v>
       </c>
@@ -15429,8 +18681,11 @@
       <c r="G439" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440" s="1" t="s">
         <v>983</v>
       </c>
@@ -15452,8 +18707,11 @@
       <c r="G440" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" s="1" t="s">
         <v>984</v>
       </c>
@@ -15475,8 +18733,11 @@
       <c r="G441" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" s="1" t="s">
         <v>985</v>
       </c>
@@ -15498,8 +18759,11 @@
       <c r="G442" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" s="1" t="s">
         <v>986</v>
       </c>
@@ -15521,8 +18785,11 @@
       <c r="G443" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" s="1" t="s">
         <v>987</v>
       </c>
@@ -15544,8 +18811,11 @@
       <c r="G444" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="1" t="s">
         <v>988</v>
       </c>
@@ -15567,8 +18837,11 @@
       <c r="G445" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" s="1" t="s">
         <v>989</v>
       </c>
@@ -15590,8 +18863,11 @@
       <c r="G446" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447" s="1" t="s">
         <v>990</v>
       </c>
@@ -15613,8 +18889,11 @@
       <c r="G447" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" s="1" t="s">
         <v>991</v>
       </c>
@@ -15636,8 +18915,11 @@
       <c r="G448" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449" s="1" t="s">
         <v>992</v>
       </c>
@@ -15659,8 +18941,11 @@
       <c r="G449" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450" s="1" t="s">
         <v>993</v>
       </c>
@@ -15682,8 +18967,11 @@
       <c r="G450" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451" s="1" t="s">
         <v>994</v>
       </c>
@@ -15705,8 +18993,11 @@
       <c r="G451" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452" s="1" t="s">
         <v>995</v>
       </c>
@@ -15728,8 +19019,11 @@
       <c r="G452" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453" s="1" t="s">
         <v>996</v>
       </c>
@@ -15751,8 +19045,11 @@
       <c r="G453" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454" s="1" t="s">
         <v>997</v>
       </c>
@@ -15774,8 +19071,11 @@
       <c r="G454" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455" s="1" t="s">
         <v>998</v>
       </c>
@@ -15797,8 +19097,11 @@
       <c r="G455" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456" s="1" t="s">
         <v>999</v>
       </c>
@@ -15820,8 +19123,11 @@
       <c r="G456" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457" s="1" t="s">
         <v>1000</v>
       </c>
@@ -15843,8 +19149,11 @@
       <c r="G457" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458" s="1" t="s">
         <v>1001</v>
       </c>
@@ -15866,8 +19175,11 @@
       <c r="G458" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" s="1" t="s">
         <v>1002</v>
       </c>
@@ -15889,8 +19201,11 @@
       <c r="G459" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460" s="1" t="s">
         <v>1003</v>
       </c>
@@ -15912,8 +19227,11 @@
       <c r="G460" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" s="1" t="s">
         <v>1004</v>
       </c>
@@ -15935,8 +19253,11 @@
       <c r="G461" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462" s="1" t="s">
         <v>1005</v>
       </c>
@@ -15958,8 +19279,11 @@
       <c r="G462" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463" s="1" t="s">
         <v>1006</v>
       </c>
@@ -15981,8 +19305,11 @@
       <c r="G463" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464" s="1" t="s">
         <v>1007</v>
       </c>
@@ -16004,8 +19331,11 @@
       <c r="G464" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465" s="1" t="s">
         <v>1008</v>
       </c>
@@ -16027,8 +19357,11 @@
       <c r="G465" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466" s="1" t="s">
         <v>1009</v>
       </c>
@@ -16050,8 +19383,11 @@
       <c r="G466" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" s="1" t="s">
         <v>1010</v>
       </c>
@@ -16073,8 +19409,11 @@
       <c r="G467" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" s="1" t="s">
         <v>1011</v>
       </c>
@@ -16096,8 +19435,11 @@
       <c r="G468" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469" s="1" t="s">
         <v>1012</v>
       </c>
@@ -16119,8 +19461,11 @@
       <c r="G469" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470" s="1" t="s">
         <v>1013</v>
       </c>
@@ -16142,8 +19487,11 @@
       <c r="G470" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471" s="1" t="s">
         <v>1014</v>
       </c>
@@ -16165,8 +19513,11 @@
       <c r="G471" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472" s="1" t="s">
         <v>1015</v>
       </c>
@@ -16188,8 +19539,11 @@
       <c r="G472" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473" s="1" t="s">
         <v>1016</v>
       </c>
@@ -16211,8 +19565,11 @@
       <c r="G473" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474" s="1" t="s">
         <v>1017</v>
       </c>
@@ -16235,7 +19592,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:8">
       <c r="A475" s="1" t="s">
         <v>1018</v>
       </c>
@@ -16258,7 +19615,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:8">
       <c r="A476" s="1" t="s">
         <v>1019</v>
       </c>
@@ -16281,7 +19638,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:8">
       <c r="A477" s="1" t="s">
         <v>1020</v>
       </c>
@@ -16304,7 +19661,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:8">
       <c r="A478" s="1" t="s">
         <v>1021</v>
       </c>
@@ -16327,7 +19684,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:8">
       <c r="A479" s="1" t="s">
         <v>1022</v>
       </c>
@@ -16350,7 +19707,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:8">
       <c r="A480" s="1" t="s">
         <v>1023</v>
       </c>
